--- a/time6.xlsx
+++ b/time6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2792085681110166</v>
+        <v>0.3001999982528375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.282603266142076</v>
+        <v>0.378983375680606</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.003394698031059462</v>
+        <v>-0.07878337742776853</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2820641669605425</v>
+        <v>0.3372062825102358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312519881782826</v>
+        <v>0.356253293594576</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03045571482228343</v>
+        <v>-0.01904701108434026</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3169869169353415</v>
+        <v>0.3433903851692675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3789936219552628</v>
+        <v>0.4829224609760434</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06200670501992128</v>
+        <v>-0.139532075806776</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3200424476037599</v>
+        <v>0.3752752055808071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425991120122908</v>
+        <v>0.4559760102688449</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1059486725191481</v>
+        <v>-0.08070080468803786</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3413881038563782</v>
+        <v>0.3927434672769011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343335359135274</v>
+        <v>0.4542398201137554</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001947255278895832</v>
+        <v>-0.06149635283685434</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3532126816130385</v>
+        <v>0.4022135803512477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3956286895116129</v>
+        <v>0.4128754257042724</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04241600789857436</v>
+        <v>-0.01066184535302467</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3540650101903752</v>
+        <v>0.4798255160669879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3787401748823895</v>
+        <v>0.4951900902958889</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02467516469201436</v>
+        <v>-0.01536457422890103</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3712008062925987</v>
+        <v>4.36553682573309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3741057104174353</v>
+        <v>4.477319897656542</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002904904124836627</v>
+        <v>-0.1117830719234512</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8350439986881326</v>
+        <v>4.384485260131818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.922867236466874</v>
+        <v>4.584138549952028</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08782323777874135</v>
+        <v>-0.1996532898202101</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8514855697431019</v>
+        <v>4.389210974744354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9584380095719394</v>
+        <v>4.407608361735201</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1069524398288375</v>
+        <v>-0.0183973869908467</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8634714279352136</v>
+        <v>4.415190003222161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9072212797590528</v>
+        <v>4.532645820536488</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04374985182383917</v>
+        <v>-0.117455817314327</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8998992283565647</v>
+        <v>4.419944532669847</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9874589420687132</v>
+        <v>4.566558104800942</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08755971371214855</v>
+        <v>-0.1466135721310948</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9496440291345803</v>
+        <v>4.468585205362424</v>
       </c>
       <c r="C14" t="n">
-        <v>0.989641689944311</v>
+        <v>4.538797754882941</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03999766080973066</v>
+        <v>-0.07021254952051681</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.100574711911727</v>
+        <v>4.471332351989696</v>
       </c>
       <c r="C15" t="n">
-        <v>2.177280614155041</v>
+        <v>4.537508806721994</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07670590224331386</v>
+        <v>-0.06617645473229761</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.132827653385905</v>
+        <v>4.497688547073787</v>
       </c>
       <c r="C16" t="n">
-        <v>2.229153144862761</v>
+        <v>4.51155032910481</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09632549147685543</v>
+        <v>-0.01386178203102251</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.155901005411921</v>
+        <v>4.506376321622556</v>
       </c>
       <c r="C17" t="n">
-        <v>2.259943891461486</v>
+        <v>4.560141586530352</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1040428860495655</v>
+        <v>-0.05376526490779643</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.161325570746448</v>
+        <v>4.53211134323708</v>
       </c>
       <c r="C18" t="n">
-        <v>2.251563006520444</v>
+        <v>4.564701581437598</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09023743577399568</v>
+        <v>-0.03259023820051787</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.180939757730597</v>
+        <v>4.562195137737325</v>
       </c>
       <c r="C19" t="n">
-        <v>2.232209694338438</v>
+        <v>4.58789536742895</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05126993660784063</v>
+        <v>-0.02570022969162533</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.187276349755006</v>
+        <v>4.853912830097086</v>
       </c>
       <c r="C20" t="n">
-        <v>2.238371531022348</v>
+        <v>4.537295828439048</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05109518126734258</v>
+        <v>0.3166170016580372</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.226640711747069</v>
+        <v>7.258839897500109</v>
       </c>
       <c r="C21" t="n">
-        <v>2.252350744091751</v>
+        <v>7.374254492535021</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02571003234468217</v>
+        <v>-0.1154145950349124</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.23338005189943</v>
+        <v>7.330653305905883</v>
       </c>
       <c r="C22" t="n">
-        <v>2.238325387473368</v>
+        <v>7.430552666014268</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.004945335573938614</v>
+        <v>-0.09989936010838552</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.235940397061618</v>
+        <v>7.346119927559265</v>
       </c>
       <c r="C23" t="n">
-        <v>2.252878977718493</v>
+        <v>7.433582520213823</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0169385806568747</v>
+        <v>-0.08746259265455869</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.236568796196108</v>
+        <v>7.356128988712943</v>
       </c>
       <c r="C24" t="n">
-        <v>2.247637770779379</v>
+        <v>7.369316169199788</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01106897458327039</v>
+        <v>-0.01318718048684531</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.242336110290374</v>
+        <v>7.365752934308341</v>
       </c>
       <c r="C25" t="n">
-        <v>2.254134125624048</v>
+        <v>7.400392586395169</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01179801533367364</v>
+        <v>-0.03463965208682751</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.97888079720581</v>
+        <v>7.379561701725867</v>
       </c>
       <c r="C26" t="n">
-        <v>11.98173584393024</v>
+        <v>7.40096873120689</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002855046724429045</v>
+        <v>-0.0214070294810238</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.98783747969229</v>
+        <v>7.380045594773458</v>
       </c>
       <c r="C27" t="n">
-        <v>12.11819556386101</v>
+        <v>7.451853306810206</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1303580841687122</v>
+        <v>-0.07180771203674841</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.98800776100139</v>
+        <v>7.402098232767123</v>
       </c>
       <c r="C28" t="n">
-        <v>12.01704786903404</v>
+        <v>7.408308377173994</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02904010803265145</v>
+        <v>-0.006210144406870732</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.01586261300713</v>
+        <v>7.410623361053261</v>
       </c>
       <c r="C29" t="n">
-        <v>12.04929841940612</v>
+        <v>7.422459558874912</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.03343580639898924</v>
+        <v>-0.01183619782165035</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.0415197126819</v>
+        <v>10.76925718507873</v>
       </c>
       <c r="C30" t="n">
-        <v>12.05734343194658</v>
+        <v>10.80061309746046</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01582371926468085</v>
+        <v>-0.03135591238172708</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.04787209726601</v>
+        <v>10.77167102313758</v>
       </c>
       <c r="C31" t="n">
-        <v>12.13965064539245</v>
+        <v>10.96761015519833</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.09177854812644348</v>
+        <v>-0.1959391320607473</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.05724355514147</v>
+        <v>10.77614759001154</v>
       </c>
       <c r="C32" t="n">
-        <v>12.07797286205342</v>
+        <v>10.87148968910998</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02072930691194763</v>
+        <v>-0.09534209909843838</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.06238558475279</v>
+        <v>10.77795642406537</v>
       </c>
       <c r="C33" t="n">
-        <v>12.11821599904522</v>
+        <v>10.80335192735235</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.05583041429242819</v>
+        <v>-0.02539550328698681</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.069170109069</v>
+        <v>10.8088681679365</v>
       </c>
       <c r="C34" t="n">
-        <v>12.13686855963556</v>
+        <v>10.92557662666634</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0676984505665672</v>
+        <v>-0.1167084587298373</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.07198666748358</v>
+        <v>10.82476204118023</v>
       </c>
       <c r="C35" t="n">
-        <v>12.08587712630152</v>
+        <v>10.90293764318282</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01389045881793471</v>
+        <v>-0.07817560200258811</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.08531226395803</v>
+        <v>10.82695674254488</v>
       </c>
       <c r="C36" t="n">
-        <v>12.09974221828294</v>
+        <v>10.97737223545994</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01442995432490868</v>
+        <v>-0.1504154929150623</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.09103739972794</v>
+        <v>10.83119301896048</v>
       </c>
       <c r="C37" t="n">
-        <v>12.09434507191383</v>
+        <v>10.83884797059772</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00330767218589223</v>
+        <v>-0.007654951637240615</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.09497627328206</v>
+        <v>10.85444660009288</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1076846224783</v>
+        <v>10.98364549370966</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01270834919623454</v>
+        <v>-0.1291988936167741</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.11719313383391</v>
+        <v>10.87323470705149</v>
       </c>
       <c r="C39" t="n">
-        <v>12.12167359712311</v>
+        <v>10.89040644235915</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.004480463289199932</v>
+        <v>-0.0171717353076577</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.31822797926233</v>
+        <v>11.20866214162929</v>
       </c>
       <c r="C40" t="n">
-        <v>12.12072747017661</v>
+        <v>11.29593857448831</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1975005090857174</v>
+        <v>-0.08727643285901898</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.2580582129655</v>
+        <v>11.22586032083313</v>
       </c>
       <c r="C41" t="n">
-        <v>13.3970753498518</v>
+        <v>11.23322005840966</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1390171368862934</v>
+        <v>-0.007359737576527081</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.27054319396043</v>
+        <v>11.23910687426476</v>
       </c>
       <c r="C42" t="n">
-        <v>13.39868041309672</v>
+        <v>11.28841443441183</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1281372191362937</v>
+        <v>-0.04930756014707782</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.27620377905999</v>
+        <v>11.25151447389534</v>
       </c>
       <c r="C43" t="n">
-        <v>13.33136896298967</v>
+        <v>11.42888175837148</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05516518392968095</v>
+        <v>-0.1773672844761407</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.28894459107254</v>
+        <v>11.25340673025799</v>
       </c>
       <c r="C44" t="n">
-        <v>13.37865307888207</v>
+        <v>11.33488723257189</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.08970848780952423</v>
+        <v>-0.08148050231390336</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.29626116142073</v>
+        <v>11.26121735162973</v>
       </c>
       <c r="C45" t="n">
-        <v>13.40225344470299</v>
+        <v>11.31872530211556</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1059922832822622</v>
+        <v>-0.05750795048582447</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.31951902186696</v>
+        <v>11.26594331139927</v>
       </c>
       <c r="C46" t="n">
-        <v>13.38782978503892</v>
+        <v>11.328177451211</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.06831076317196327</v>
+        <v>-0.06223413981173032</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.3200977090787</v>
+        <v>11.30415505313146</v>
       </c>
       <c r="C47" t="n">
-        <v>13.3261607615443</v>
+        <v>11.38962325267579</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.00606305246560801</v>
+        <v>-0.08546819954432827</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.38238305702031</v>
+        <v>11.33078812451657</v>
       </c>
       <c r="C48" t="n">
-        <v>13.40329804340605</v>
+        <v>11.39055051736157</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.02091498638574585</v>
+        <v>-0.0597623928449984</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.84070166125873</v>
+        <v>11.35813515625435</v>
       </c>
       <c r="C49" t="n">
-        <v>13.9143426795609</v>
+        <v>11.37345811705055</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.07364101830216896</v>
+        <v>-0.01532296079619755</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.87419545732293</v>
+        <v>11.38489820544577</v>
       </c>
       <c r="C50" t="n">
-        <v>13.88102665627925</v>
+        <v>11.38574200287893</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.006831198956318119</v>
+        <v>-0.0008437974331609865</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.89455298223259</v>
+        <v>11.38819849730005</v>
       </c>
       <c r="C51" t="n">
-        <v>13.92507535033335</v>
+        <v>11.39345852884012</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.03052236810076181</v>
+        <v>-0.005260031540068155</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.93653233325749</v>
+        <v>11.38990945653217</v>
       </c>
       <c r="C52" t="n">
-        <v>13.95265098831429</v>
+        <v>11.52421775927476</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01611865505680221</v>
+        <v>-0.1343083027425855</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.96721824083242</v>
+        <v>11.40437849102713</v>
       </c>
       <c r="C53" t="n">
-        <v>13.99965303596965</v>
+        <v>11.43160736648595</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03243479513722747</v>
+        <v>-0.02722887545881569</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.67987141657469</v>
+        <v>11.41339125153915</v>
       </c>
       <c r="C54" t="n">
-        <v>14.6903067942433</v>
+        <v>11.47996552452986</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01043537766861036</v>
+        <v>-0.06657427299070662</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.68002817171728</v>
+        <v>11.4292555457559</v>
       </c>
       <c r="C55" t="n">
-        <v>14.80382948660707</v>
+        <v>11.45591623444044</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1238013148897963</v>
+        <v>-0.02666068868453841</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.69531833820761</v>
+        <v>11.43698211894072</v>
       </c>
       <c r="C56" t="n">
-        <v>14.69766117211054</v>
+        <v>11.50541454586074</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.002342833902934771</v>
+        <v>-0.06843242692002605</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.71477371261483</v>
+        <v>11.45569149713462</v>
       </c>
       <c r="C57" t="n">
-        <v>14.7640647957116</v>
+        <v>11.46917613876635</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.04929108309676344</v>
+        <v>-0.01348464163173091</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.74789788516849</v>
+        <v>11.46398604432844</v>
       </c>
       <c r="C58" t="n">
-        <v>14.76280444223398</v>
+        <v>11.48953129439145</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01490655706549582</v>
+        <v>-0.02554525006301134</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.7578462674129</v>
+        <v>11.47320768797534</v>
       </c>
       <c r="C59" t="n">
-        <v>14.80935105252261</v>
+        <v>11.53237758424023</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.05150478510970835</v>
+        <v>-0.05916989626489766</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.77247510159332</v>
+        <v>11.47957711634791</v>
       </c>
       <c r="C60" t="n">
-        <v>14.79382074759106</v>
+        <v>11.53270637712049</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02134564599773725</v>
+        <v>-0.0531292607725824</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.77399203394981</v>
+        <v>11.4946830466471</v>
       </c>
       <c r="C61" t="n">
-        <v>14.79779924293505</v>
+        <v>11.50220550386324</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02380720898524302</v>
+        <v>-0.007522457216136758</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.180044317162</v>
+        <v>11.58331612685825</v>
       </c>
       <c r="C62" t="n">
-        <v>16.243864790626</v>
+        <v>11.50073039080977</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.06382047346399844</v>
+        <v>0.08258573604848429</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.22713176644416</v>
+        <v>12.1857082628917</v>
       </c>
       <c r="C63" t="n">
-        <v>16.32837095435086</v>
+        <v>11.41723945253118</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1012391879067067</v>
+        <v>0.7684688103605239</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.22891408208707</v>
+        <v>14.36761050405856</v>
       </c>
       <c r="C64" t="n">
-        <v>16.24168192436717</v>
+        <v>14.52196406568578</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01276784228010186</v>
+        <v>-0.1543535616272198</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.23170723417523</v>
+        <v>14.37070922648005</v>
       </c>
       <c r="C65" t="n">
-        <v>16.23246404055751</v>
+        <v>14.48039768640639</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0007568063822809279</v>
+        <v>-0.109688459926339</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.2630410658234</v>
+        <v>14.38123604646125</v>
       </c>
       <c r="C66" t="n">
-        <v>16.34110433481776</v>
+        <v>14.52023344421678</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.07806326899436655</v>
+        <v>-0.1389973977555297</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.26733736977324</v>
+        <v>14.38443117110176</v>
       </c>
       <c r="C67" t="n">
-        <v>16.30243348903309</v>
+        <v>14.51936706909791</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.03509611925985112</v>
+        <v>-0.1349358979961526</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.2816088879704</v>
+        <v>14.39607344795684</v>
       </c>
       <c r="C68" t="n">
-        <v>16.3216735184777</v>
+        <v>14.41535438598817</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.04006463050730247</v>
+        <v>-0.01928093803133102</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.29226663502268</v>
+        <v>14.40208138095643</v>
       </c>
       <c r="C69" t="n">
-        <v>16.35587414655554</v>
+        <v>14.416965192366</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.06360751153285094</v>
+        <v>-0.01488381140956463</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.29732333580074</v>
+        <v>14.408054562393</v>
       </c>
       <c r="C70" t="n">
-        <v>16.33883819823959</v>
+        <v>14.45109756796676</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04151486243884506</v>
+        <v>-0.04304300557375562</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.30417158437118</v>
+        <v>14.41729959441555</v>
       </c>
       <c r="C71" t="n">
-        <v>16.31680229221303</v>
+        <v>14.42662644233985</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01263070784185416</v>
+        <v>-0.009326847924301163</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.30862629056415</v>
+        <v>14.44159492668783</v>
       </c>
       <c r="C72" t="n">
-        <v>16.36127135650392</v>
+        <v>14.4887204367676</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.05264506593976392</v>
+        <v>-0.04712551007977517</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.31248195850256</v>
+        <v>14.49085138517</v>
       </c>
       <c r="C73" t="n">
-        <v>16.33326326815157</v>
+        <v>14.51729531078851</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02078130964900993</v>
+        <v>-0.02644392561851383</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.35128870493948</v>
+        <v>14.50339744236157</v>
       </c>
       <c r="C74" t="n">
-        <v>16.35454160803043</v>
+        <v>14.51594808752897</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.003252903090949388</v>
+        <v>-0.01255064516739779</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17.11713078186786</v>
+        <v>16.65303430120196</v>
       </c>
       <c r="C75" t="n">
-        <v>17.2573803127809</v>
+        <v>16.85524656480546</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1402495309130423</v>
+        <v>-0.2022122636034922</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17.11991087113019</v>
+        <v>16.66842643572672</v>
       </c>
       <c r="C76" t="n">
-        <v>17.16799967994463</v>
+        <v>16.86991776669191</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.04808880881443756</v>
+        <v>-0.2014913309651867</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17.1212377641252</v>
+        <v>16.67487380466347</v>
       </c>
       <c r="C77" t="n">
-        <v>17.13981232050597</v>
+        <v>16.68806313588548</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01857455638076999</v>
+        <v>-0.01318933122200505</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17.12322781298089</v>
+        <v>16.69107627597825</v>
       </c>
       <c r="C78" t="n">
-        <v>17.26545177598899</v>
+        <v>16.74135231004026</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1422239630080995</v>
+        <v>-0.05027603406200853</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17.12349031738387</v>
+        <v>16.70394694625867</v>
       </c>
       <c r="C79" t="n">
-        <v>17.16267135781154</v>
+        <v>16.75338771865471</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.03918104042766757</v>
+        <v>-0.04944077239603928</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17.12349739334547</v>
+        <v>16.73029819661123</v>
       </c>
       <c r="C80" t="n">
-        <v>17.26532637240921</v>
+        <v>16.8414096586006</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1418289790637424</v>
+        <v>-0.1111114619893776</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17.14336091267135</v>
+        <v>16.74087348140246</v>
       </c>
       <c r="C81" t="n">
-        <v>17.1561558762551</v>
+        <v>16.82123394957624</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01279496358374388</v>
+        <v>-0.08036046817378306</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17.15394180360981</v>
+        <v>16.75240357533273</v>
       </c>
       <c r="C82" t="n">
-        <v>17.18904732235465</v>
+        <v>16.7726307544578</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.03510551874484236</v>
+        <v>-0.02022717912506877</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17.16911971480481</v>
+        <v>16.75770074804385</v>
       </c>
       <c r="C83" t="n">
-        <v>17.23450562018184</v>
+        <v>16.78048407001631</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.06538590537703115</v>
+        <v>-0.02278332197246513</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17.19053863230294</v>
+        <v>16.77151168729885</v>
       </c>
       <c r="C84" t="n">
-        <v>17.21311371526432</v>
+        <v>16.77294868645301</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02257508296138155</v>
+        <v>-0.001436999154158514</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17.22955683473244</v>
+        <v>16.78477039904986</v>
       </c>
       <c r="C85" t="n">
-        <v>17.23920529553413</v>
+        <v>16.80895569166046</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.009648460801692238</v>
+        <v>-0.02418529261059987</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17.43911689314334</v>
+        <v>16.78751580787496</v>
       </c>
       <c r="C86" t="n">
-        <v>17.22515391726099</v>
+        <v>16.80971408422907</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2139629758823531</v>
+        <v>-0.02219827635411065</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17.61883266041611</v>
+        <v>16.80250912711291</v>
       </c>
       <c r="C87" t="n">
-        <v>17.63560404882966</v>
+        <v>16.84675842596083</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01677138841354875</v>
+        <v>-0.0442492988479195</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17.62375115335186</v>
+        <v>16.98714034591917</v>
       </c>
       <c r="C88" t="n">
-        <v>17.73867559400521</v>
+        <v>17.07972368187755</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1149244406533505</v>
+        <v>-0.09258333595838408</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17.63151548214092</v>
+        <v>16.98839100719341</v>
       </c>
       <c r="C89" t="n">
-        <v>17.69672019170165</v>
+        <v>16.81876639823015</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.06520470956072444</v>
+        <v>0.1696246089632538</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17.63838170957755</v>
+        <v>17.00007760125212</v>
       </c>
       <c r="C90" t="n">
-        <v>17.64446075508456</v>
+        <v>17.14818788509411</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.006079045507007663</v>
+        <v>-0.1481102838419837</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17.6425036880747</v>
+        <v>17.02029197930959</v>
       </c>
       <c r="C91" t="n">
-        <v>17.65820110466449</v>
+        <v>17.13178371584492</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01569741658978074</v>
+        <v>-0.111491736535335</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17.65492012091247</v>
+        <v>17.07868717010561</v>
       </c>
       <c r="C92" t="n">
-        <v>17.67880845571626</v>
+        <v>17.10876523801543</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02388833480379304</v>
+        <v>-0.0300780679098267</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17.66337496269125</v>
+        <v>17.11170393681103</v>
       </c>
       <c r="C93" t="n">
-        <v>17.66831107617752</v>
+        <v>17.11469584123071</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.004936113486269988</v>
+        <v>-0.002991904419680225</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17.66470234239631</v>
+        <v>18.83909300669806</v>
       </c>
       <c r="C94" t="n">
-        <v>17.75194318626656</v>
+        <v>18.94688778862935</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.08724084387025499</v>
+        <v>-0.1077947819312861</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17.68401609949237</v>
+        <v>18.87547795444801</v>
       </c>
       <c r="C95" t="n">
-        <v>17.75680677589413</v>
+        <v>18.90479536932086</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.07279067640176606</v>
+        <v>-0.02931741487284967</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17.68679998336568</v>
+        <v>18.87859096774232</v>
       </c>
       <c r="C96" t="n">
-        <v>17.7241957659344</v>
+        <v>18.98292996511629</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.03739578256871923</v>
+        <v>-0.1043389973739686</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17.69148025822076</v>
+        <v>18.88393609381472</v>
       </c>
       <c r="C97" t="n">
-        <v>17.73472138818772</v>
+        <v>19.02871231940808</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.04324112996695817</v>
+        <v>-0.144776225593354</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17.707181372774</v>
+        <v>18.88750907783341</v>
       </c>
       <c r="C98" t="n">
-        <v>17.62727971769846</v>
+        <v>18.89068941585928</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07990165507554181</v>
+        <v>-0.003180338025874363</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17.74816325585329</v>
+        <v>18.89608914536961</v>
       </c>
       <c r="C99" t="n">
-        <v>17.75928013189062</v>
+        <v>18.9214517944482</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.01111687603733102</v>
+        <v>-0.02536264907858765</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17.7520465060684</v>
+        <v>18.98538735477513</v>
       </c>
       <c r="C100" t="n">
-        <v>17.76394212974981</v>
+        <v>19.0361240228283</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.01189562368140784</v>
+        <v>-0.0507366680531689</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17.88769566308941</v>
+        <v>18.99508971640189</v>
       </c>
       <c r="C101" t="n">
-        <v>17.70507599707446</v>
+        <v>19.00729953555534</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1826196660149471</v>
+        <v>-0.01220981915345121</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>23.58035791576527</v>
+        <v>19.02802939028599</v>
       </c>
       <c r="C102" t="n">
-        <v>23.69616504661724</v>
+        <v>19.04251571047487</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1158071308519695</v>
+        <v>-0.01448632018887963</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>23.60331989007014</v>
+        <v>19.04583536183976</v>
       </c>
       <c r="C103" t="n">
-        <v>23.69037523396591</v>
+        <v>18.95433682465969</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.08705534389576286</v>
+        <v>0.09149853718006185</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>23.62681127348152</v>
+        <v>19.83693100256167</v>
       </c>
       <c r="C104" t="n">
-        <v>23.69564719638398</v>
+        <v>19.8562289523224</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.06883592290246199</v>
+        <v>-0.0192979497607304</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.64035029095292</v>
+        <v>19.85178705137004</v>
       </c>
       <c r="C105" t="n">
-        <v>23.67673978803525</v>
+        <v>19.98311187120299</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.03638949708232531</v>
+        <v>-0.1313248198329511</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.6413199500225</v>
+        <v>19.85880599720537</v>
       </c>
       <c r="C106" t="n">
-        <v>23.65530081523822</v>
+        <v>19.95184811221062</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0139808652157285</v>
+        <v>-0.09304211500525383</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.64155210262888</v>
+        <v>19.87457903745372</v>
       </c>
       <c r="C107" t="n">
-        <v>23.64339201945198</v>
+        <v>19.97184497226882</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.001839916823097809</v>
+        <v>-0.09726593481509838</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.65910648742734</v>
+        <v>19.99977829763266</v>
       </c>
       <c r="C108" t="n">
-        <v>23.68651639084221</v>
+        <v>20.02846711667957</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02740990341487048</v>
+        <v>-0.02868881904690923</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.66954251164976</v>
+        <v>21.62259230367177</v>
       </c>
       <c r="C109" t="n">
-        <v>23.70943473326136</v>
+        <v>21.69460893902859</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.039892221611602</v>
+        <v>-0.07201663535682457</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>31.42620577986193</v>
+        <v>21.63771668323891</v>
       </c>
       <c r="C110" t="n">
-        <v>31.47271156557406</v>
+        <v>21.64919607983352</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.0465057857121316</v>
+        <v>-0.01147939659461272</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>31.45207505096925</v>
+        <v>21.70055795608577</v>
       </c>
       <c r="C111" t="n">
-        <v>31.54455898289723</v>
+        <v>21.74323365098292</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.09248393192797977</v>
+        <v>-0.04267569489714518</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>31.4548497397154</v>
+        <v>21.72271838063252</v>
       </c>
       <c r="C112" t="n">
-        <v>31.57987616433012</v>
+        <v>21.68029754011926</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1250264246147275</v>
+        <v>0.0424208405132589</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>31.46460880741851</v>
+        <v>21.78620422768524</v>
       </c>
       <c r="C113" t="n">
-        <v>31.46761123399359</v>
+        <v>21.82058684269604</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.003002426575086758</v>
+        <v>-0.0343826150108022</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>31.48926662391905</v>
+        <v>21.79156032483362</v>
       </c>
       <c r="C114" t="n">
-        <v>31.5002909177676</v>
+        <v>21.80787889087786</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.01102429384855341</v>
+        <v>-0.01631856604424087</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>31.49605039369885</v>
+        <v>21.79420188196925</v>
       </c>
       <c r="C115" t="n">
-        <v>31.60071611417024</v>
+        <v>21.81451008348567</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1046657204713881</v>
+        <v>-0.02030820151641777</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>31.49699499498478</v>
+        <v>24.29848930759617</v>
       </c>
       <c r="C116" t="n">
-        <v>31.53969836725406</v>
+        <v>24.51854178427641</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.04270337226927978</v>
+        <v>-0.2200524766802374</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>31.49884504892794</v>
+        <v>24.31195824216739</v>
       </c>
       <c r="C117" t="n">
-        <v>31.59921017963904</v>
+        <v>24.45052057481459</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1003651307111006</v>
+        <v>-0.1385623326471972</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>31.50751072682145</v>
+        <v>24.31795102361291</v>
       </c>
       <c r="C118" t="n">
-        <v>31.51838271139242</v>
+        <v>24.39835896459881</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.01087198457097216</v>
+        <v>-0.08040794098590709</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>31.53726984535615</v>
+        <v>24.34534072436812</v>
       </c>
       <c r="C119" t="n">
-        <v>31.56650165779192</v>
+        <v>24.40487377854327</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.02923181243577133</v>
+        <v>-0.05953305417514798</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>31.55245165205474</v>
+        <v>24.35607960963167</v>
       </c>
       <c r="C120" t="n">
-        <v>31.59070696665961</v>
+        <v>24.47858804567835</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.03825531460487497</v>
+        <v>-0.1225084360466759</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>31.55814070993954</v>
+        <v>24.37404717765145</v>
       </c>
       <c r="C121" t="n">
-        <v>31.58001147158162</v>
+        <v>24.44511109277556</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.02187076164208435</v>
+        <v>-0.07106391512411037</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>31.57167228132203</v>
+        <v>24.37667921591613</v>
       </c>
       <c r="C122" t="n">
-        <v>31.58412604217667</v>
+        <v>24.39734572061281</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.01245376085464045</v>
+        <v>-0.02066650469667408</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>35.0427626967039</v>
+        <v>24.39322654174455</v>
       </c>
       <c r="C123" t="n">
-        <v>35.09933297515222</v>
+        <v>24.51465899704731</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.05657027844831219</v>
+        <v>-0.1214324553027559</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>35.04558594249973</v>
+        <v>24.41202798071945</v>
       </c>
       <c r="C124" t="n">
-        <v>35.02745907716729</v>
+        <v>24.41261247780004</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0181268653324409</v>
+        <v>-0.000584497080581059</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>35.04724391471615</v>
+        <v>24.45520620446154</v>
       </c>
       <c r="C125" t="n">
-        <v>35.14054644482984</v>
+        <v>24.46379373321256</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.09330253011369649</v>
+        <v>-0.00858752875102553</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>35.05959394436594</v>
+        <v>24.46089328613659</v>
       </c>
       <c r="C126" t="n">
-        <v>35.06819753223532</v>
+        <v>24.48232388196149</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.008603587869373541</v>
+        <v>-0.02143059582490636</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>35.06666902114257</v>
+        <v>24.47855614767406</v>
       </c>
       <c r="C127" t="n">
-        <v>35.08270442101252</v>
+        <v>24.50307552091246</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.01603539986995628</v>
+        <v>-0.02451937323839815</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>35.0725356213191</v>
+        <v>24.71435276892407</v>
       </c>
       <c r="C128" t="n">
-        <v>35.14862048396838</v>
+        <v>24.48388190543815</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.0760848626492816</v>
+        <v>0.2304708634859161</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>35.07776316678003</v>
+        <v>26.43879263108566</v>
       </c>
       <c r="C129" t="n">
-        <v>35.07821423056794</v>
+        <v>26.6255525242759</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.000451063787913597</v>
+        <v>-0.1867598931902421</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>35.08093186565393</v>
+        <v>26.44024621002111</v>
       </c>
       <c r="C130" t="n">
-        <v>35.11407996277137</v>
+        <v>26.49873369316215</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.03314809711744005</v>
+        <v>-0.05848748314104313</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>35.08453713268982</v>
+        <v>26.45002063519137</v>
       </c>
       <c r="C131" t="n">
-        <v>35.09552051201126</v>
+        <v>26.47184635965116</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01098337932144489</v>
+        <v>-0.02182572445979503</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>35.11882207832525</v>
+        <v>26.45013850760426</v>
       </c>
       <c r="C132" t="n">
-        <v>35.16110139892011</v>
+        <v>26.52745764285423</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.04227932059485795</v>
+        <v>-0.07731913524997225</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>35.12119495073044</v>
+        <v>26.45856209613492</v>
       </c>
       <c r="C133" t="n">
-        <v>35.13009912512779</v>
+        <v>26.51792181295824</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.008904174397351028</v>
+        <v>-0.05935971682332308</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>35.13230750276848</v>
+        <v>26.50350595731545</v>
       </c>
       <c r="C134" t="n">
-        <v>35.14077929604115</v>
+        <v>26.51412224799503</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.008471793272676109</v>
+        <v>-0.01061629067958236</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>35.15742525183992</v>
+        <v>26.54940276687482</v>
       </c>
       <c r="C135" t="n">
-        <v>35.16217630717868</v>
+        <v>26.6306441127609</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.004751055338758192</v>
+        <v>-0.08124134588608456</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>35.21646445299449</v>
+        <v>26.56002070544145</v>
       </c>
       <c r="C136" t="n">
-        <v>35.07062188477444</v>
+        <v>26.62637534842951</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1458425682200541</v>
+        <v>-0.06635464298805971</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>35.2468772010994</v>
+        <v>30.20047568402176</v>
       </c>
       <c r="C137" t="n">
-        <v>35.13221162685115</v>
+        <v>30.26614792149677</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1146655742482565</v>
+        <v>-0.06567223747501316</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.63973317855454</v>
+        <v>30.2100874909141</v>
       </c>
       <c r="C138" t="n">
-        <v>36.78693548414707</v>
+        <v>30.36161825707498</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1472023055925362</v>
+        <v>-0.1515307661608816</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>36.66088010784257</v>
+        <v>30.21612527954225</v>
       </c>
       <c r="C139" t="n">
-        <v>36.69106448463342</v>
+        <v>30.30699395658834</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.0301843767908494</v>
+        <v>-0.09086867704609247</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>36.66591312147458</v>
+        <v>30.22339691937427</v>
       </c>
       <c r="C140" t="n">
-        <v>36.70731193034947</v>
+        <v>30.30515566650098</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.041398808874888</v>
+        <v>-0.08175874712670606</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>36.67364317362952</v>
+        <v>30.23163522335052</v>
       </c>
       <c r="C141" t="n">
-        <v>36.67542987088458</v>
+        <v>30.37666246888697</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.001786697255056424</v>
+        <v>-0.1450272455364505</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>36.69690710130246</v>
+        <v>30.28894122034903</v>
       </c>
       <c r="C142" t="n">
-        <v>36.75596307904965</v>
+        <v>30.30978262710012</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0590559777471924</v>
+        <v>-0.02084140675109225</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>36.71569371862146</v>
+        <v>30.33286241076671</v>
       </c>
       <c r="C143" t="n">
-        <v>36.78770764851893</v>
+        <v>30.3793132399846</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.07201392989747291</v>
+        <v>-0.04645082921788912</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>36.73093808330006</v>
+        <v>30.36054757956057</v>
       </c>
       <c r="C144" t="n">
-        <v>36.78905312303334</v>
+        <v>30.40324652426358</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.05811503973328058</v>
+        <v>-0.04269894470301239</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>40.59146306964266</v>
+        <v>38.09676321508478</v>
       </c>
       <c r="C145" t="n">
-        <v>40.72463335628373</v>
+        <v>38.1572930988284</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1331702866410751</v>
+        <v>-0.06052988374362656</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>40.59596441193955</v>
+        <v>38.12103435162071</v>
       </c>
       <c r="C146" t="n">
-        <v>40.61435668954339</v>
+        <v>38.13972634124718</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.01839227760383721</v>
+        <v>-0.01869198962646834</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>40.60593227147808</v>
+        <v>38.15730636239712</v>
       </c>
       <c r="C147" t="n">
-        <v>40.73028130195139</v>
+        <v>38.22025005361902</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1243490304733044</v>
+        <v>-0.06294369122189636</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>40.61378247996031</v>
+        <v>38.15753266436757</v>
       </c>
       <c r="C148" t="n">
-        <v>40.72618047002472</v>
+        <v>38.29228625002492</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1123979900644088</v>
+        <v>-0.1347535856573501</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>40.61632958135571</v>
+        <v>38.16340362329945</v>
       </c>
       <c r="C149" t="n">
-        <v>40.69780295098062</v>
+        <v>38.30402331549771</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.08147336962490925</v>
+        <v>-0.140619692198257</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>40.61882445512519</v>
+        <v>38.17738423301874</v>
       </c>
       <c r="C150" t="n">
-        <v>40.68986578890171</v>
+        <v>38.28769425988074</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.07104133377652033</v>
+        <v>-0.1103100268619954</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>40.62732861283769</v>
+        <v>38.18497229427768</v>
       </c>
       <c r="C151" t="n">
-        <v>40.73040917803957</v>
+        <v>38.18797694759922</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1030805652018785</v>
+        <v>-0.003004653321546868</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>40.63299671980323</v>
+        <v>38.18502682557571</v>
       </c>
       <c r="C152" t="n">
-        <v>40.7431425334169</v>
+        <v>38.26076281211629</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1101458136136699</v>
+        <v>-0.07573598654057889</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>40.64443271504715</v>
+        <v>38.19276099926392</v>
       </c>
       <c r="C153" t="n">
-        <v>40.68271578424944</v>
+        <v>38.23679699853073</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.03828306920228641</v>
+        <v>-0.04403599926681068</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>40.64909401655113</v>
+        <v>38.20837412129199</v>
       </c>
       <c r="C154" t="n">
-        <v>40.66832887436897</v>
+        <v>38.23939655133666</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.01923485781784251</v>
+        <v>-0.03102243004467198</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>40.69595262152613</v>
+        <v>38.24003510494644</v>
       </c>
       <c r="C155" t="n">
-        <v>40.70424380911351</v>
+        <v>38.30617195659755</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.008291187587381899</v>
+        <v>-0.06613685165111605</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>40.69870163830651</v>
+        <v>38.24259339560267</v>
       </c>
       <c r="C156" t="n">
-        <v>40.69904703868243</v>
+        <v>38.29522952628849</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0003454003759202351</v>
+        <v>-0.05263613068582629</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>40.72580211867439</v>
+        <v>38.25428186839608</v>
       </c>
       <c r="C157" t="n">
-        <v>40.74601364515396</v>
+        <v>38.26272217449186</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.02021152647957081</v>
+        <v>-0.008440306095785388</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>40.80728117088048</v>
+        <v>38.28171968631914</v>
       </c>
       <c r="C158" t="n">
-        <v>40.71111902599444</v>
+        <v>38.29454623378934</v>
       </c>
       <c r="D158" t="n">
-        <v>0.09616214488604413</v>
+        <v>-0.01282654747020473</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>44.35007283935993</v>
+        <v>38.38405829348867</v>
       </c>
       <c r="C159" t="n">
-        <v>44.38431732124247</v>
+        <v>38.25775737992932</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.03424448188253848</v>
+        <v>0.1263009135593549</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>44.36063690633911</v>
+        <v>39.51509893757573</v>
       </c>
       <c r="C160" t="n">
-        <v>44.46501632988679</v>
+        <v>39.51777239067915</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1043794235476767</v>
+        <v>-0.002673453103419376</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>44.37127945269295</v>
+        <v>39.54015766885514</v>
       </c>
       <c r="C161" t="n">
-        <v>44.49992786600221</v>
+        <v>39.69357549654282</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1286484133092642</v>
+        <v>-0.153417827687683</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>44.38889359426373</v>
+        <v>39.56401800257333</v>
       </c>
       <c r="C162" t="n">
-        <v>44.45318002628132</v>
+        <v>39.61559260287127</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.06428643201758177</v>
+        <v>-0.05157460029794692</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>44.40560477341519</v>
+        <v>39.6370744210754</v>
       </c>
       <c r="C163" t="n">
-        <v>44.41773564907871</v>
+        <v>39.68120560434508</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.012130875663523</v>
+        <v>-0.04413118326967691</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>44.42394961750943</v>
+        <v>39.65780279095895</v>
       </c>
       <c r="C164" t="n">
-        <v>44.43298720358974</v>
+        <v>39.67959265014373</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.009037586080310689</v>
+        <v>-0.02178985918477139</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>44.43113737950283</v>
+        <v>40.74617669178991</v>
       </c>
       <c r="C165" t="n">
-        <v>44.49734334583403</v>
+        <v>40.85174526606371</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.06620596633120357</v>
+        <v>-0.1055685742738035</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>44.44025662435359</v>
+        <v>40.74646987716103</v>
       </c>
       <c r="C166" t="n">
-        <v>44.49353784104215</v>
+        <v>40.76369523748668</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.05328121668856056</v>
+        <v>-0.01722536032564648</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>44.4404127320886</v>
+        <v>40.76428674089072</v>
       </c>
       <c r="C167" t="n">
-        <v>44.47617541985053</v>
+        <v>40.80529689165808</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.03576268776193103</v>
+        <v>-0.04101015076736303</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>44.44264380095819</v>
+        <v>40.77072831126694</v>
       </c>
       <c r="C168" t="n">
-        <v>44.48190446877168</v>
+        <v>40.80057372674432</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.03926066781349391</v>
+        <v>-0.02984541547738218</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>44.45003854121888</v>
+        <v>40.80405553068736</v>
       </c>
       <c r="C169" t="n">
-        <v>44.46715202333564</v>
+        <v>40.85436843099959</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.01711348211676267</v>
+        <v>-0.05031290031222824</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>44.45366569399576</v>
+        <v>40.82212635987237</v>
       </c>
       <c r="C170" t="n">
-        <v>44.48374632367635</v>
+        <v>40.92823909839072</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.03008062968059022</v>
+        <v>-0.1061127385183482</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>44.48245822758825</v>
+        <v>40.8358596361718</v>
       </c>
       <c r="C171" t="n">
-        <v>44.49299096279089</v>
+        <v>40.92210999085834</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.01053273520263787</v>
+        <v>-0.08625035468653408</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>44.8019051800171</v>
+        <v>40.88196377256747</v>
       </c>
       <c r="C172" t="n">
-        <v>44.50638407739415</v>
+        <v>40.84807192670574</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2955211026229492</v>
+        <v>0.03389184586173855</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>45.26908689737008</v>
+        <v>42.10447610323744</v>
       </c>
       <c r="C173" t="n">
-        <v>45.31503925814768</v>
+        <v>42.11422921751557</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.04595236077759779</v>
+        <v>-0.009753114278133523</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>45.26984690299681</v>
+        <v>42.1067185159264</v>
       </c>
       <c r="C174" t="n">
-        <v>45.37811652977022</v>
+        <v>42.27588267260007</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1082696267734136</v>
+        <v>-0.1691641566736735</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>45.29272549220994</v>
+        <v>42.13584908044646</v>
       </c>
       <c r="C175" t="n">
-        <v>45.38528312516403</v>
+        <v>42.19512445470611</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.09255763295409025</v>
+        <v>-0.05927537425964857</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>45.30883937100214</v>
+        <v>42.17956703853822</v>
       </c>
       <c r="C176" t="n">
-        <v>45.39068177478228</v>
+        <v>42.22577604177193</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.08184240378014351</v>
+        <v>-0.04620900323371302</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>45.3118539985141</v>
+        <v>42.20975742224285</v>
       </c>
       <c r="C177" t="n">
-        <v>45.34956778160012</v>
+        <v>42.26781594547708</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.03771378308601925</v>
+        <v>-0.05805852323423011</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>45.35925946653169</v>
+        <v>42.22924234379399</v>
       </c>
       <c r="C178" t="n">
-        <v>45.3902590067416</v>
+        <v>42.28876558960209</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.03099954020991191</v>
+        <v>-0.05952324580810142</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>45.36353025599272</v>
+        <v>42.23172225244389</v>
       </c>
       <c r="C179" t="n">
-        <v>45.37274670901442</v>
+        <v>42.28473327441571</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.009216453021700488</v>
+        <v>-0.05301102197181962</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>45.38147815627955</v>
+        <v>42.2400078065313</v>
       </c>
       <c r="C180" t="n">
-        <v>45.38191587225785</v>
+        <v>42.24914638234549</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.0004377159783004458</v>
+        <v>-0.009138575814191086</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>46.69037927505715</v>
+        <v>42.24637081988054</v>
       </c>
       <c r="C181" t="n">
-        <v>46.72468975845995</v>
+        <v>42.23214087479497</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.03431048340279119</v>
+        <v>0.01422994508556741</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>46.73089854886111</v>
+        <v>42.25638110722206</v>
       </c>
       <c r="C182" t="n">
-        <v>46.81861790211204</v>
+        <v>42.26064911942005</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.08771935325093239</v>
+        <v>-0.00426801219798989</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>46.75157055456906</v>
+        <v>42.26042050596052</v>
       </c>
       <c r="C183" t="n">
-        <v>46.81270682353127</v>
+        <v>42.27331524070009</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.06113626896221547</v>
+        <v>-0.01289473473956804</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>46.75811459463954</v>
+        <v>42.2782723223899</v>
       </c>
       <c r="C184" t="n">
-        <v>46.79252972453012</v>
+        <v>42.28350306849311</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.03441512989058282</v>
+        <v>-0.005230746103208617</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>46.75855377689284</v>
+        <v>42.31275136616512</v>
       </c>
       <c r="C185" t="n">
-        <v>46.82402154255102</v>
+        <v>42.19425730422352</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.0654677656581768</v>
+        <v>0.1184940619416039</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>46.77894200584493</v>
+        <v>42.575630818731</v>
       </c>
       <c r="C186" t="n">
-        <v>46.80133727488207</v>
+        <v>42.71278552939227</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.02239526903714051</v>
+        <v>-0.1371547106612709</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>46.78602552133806</v>
+        <v>42.57629336180887</v>
       </c>
       <c r="C187" t="n">
-        <v>46.78626743313632</v>
+        <v>42.68988076821235</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.0002419117982555008</v>
+        <v>-0.1135874064034823</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>46.82380205906847</v>
+        <v>42.57841665823558</v>
       </c>
       <c r="C188" t="n">
-        <v>46.82947157500772</v>
+        <v>42.66914795249377</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.005669515939246139</v>
+        <v>-0.09073129425818394</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>46.84138742528475</v>
+        <v>42.6108658983523</v>
       </c>
       <c r="C189" t="n">
-        <v>46.85655876051255</v>
+        <v>42.65022761206193</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.01517133522779801</v>
+        <v>-0.03936171370963137</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>52.36830927512436</v>
+        <v>42.62608214145152</v>
       </c>
       <c r="C190" t="n">
-        <v>52.39909361508025</v>
+        <v>42.66483812011661</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.03078433995589336</v>
+        <v>-0.03875597866508684</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>52.38001743043542</v>
+        <v>42.62811165670107</v>
       </c>
       <c r="C191" t="n">
-        <v>52.39887319795915</v>
+        <v>42.69912058045925</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.01885576752373197</v>
+        <v>-0.07100892375818546</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>52.38993221788316</v>
+        <v>42.6410208206838</v>
       </c>
       <c r="C192" t="n">
-        <v>52.401104342158</v>
+        <v>42.71493720803109</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.01117212427484304</v>
+        <v>-0.073916387347289</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>52.39127723594608</v>
+        <v>42.65501010881083</v>
       </c>
       <c r="C193" t="n">
-        <v>52.44375992362291</v>
+        <v>42.66036698870028</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.05248268767682873</v>
+        <v>-0.005356879889454547</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>52.39465262200108</v>
+        <v>42.65589430576441</v>
       </c>
       <c r="C194" t="n">
-        <v>52.44018345759243</v>
+        <v>42.70978005275555</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.04553083559135018</v>
+        <v>-0.05388574699114201</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>52.39931475542993</v>
+        <v>42.6864524130912</v>
       </c>
       <c r="C195" t="n">
-        <v>52.44309602997301</v>
+        <v>42.70914612646667</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.04378127454307901</v>
+        <v>-0.02269371337547454</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>52.40488141074685</v>
+        <v>42.75168776166176</v>
       </c>
       <c r="C196" t="n">
-        <v>52.45657077332726</v>
+        <v>42.77320594258729</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.05168936258041157</v>
+        <v>-0.0215181809255327</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>52.41478756014456</v>
+        <v>48.30980433393844</v>
       </c>
       <c r="C197" t="n">
-        <v>52.49702611757277</v>
+        <v>48.37216284644196</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.08223855742820518</v>
+        <v>-0.06235851250352198</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>52.41515050526601</v>
+        <v>48.31079602532336</v>
       </c>
       <c r="C198" t="n">
-        <v>52.43478787310758</v>
+        <v>48.39277080295442</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.01963736784157533</v>
+        <v>-0.08197477763106065</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>52.41982527601299</v>
+        <v>48.31253859243333</v>
       </c>
       <c r="C199" t="n">
-        <v>52.44813586497791</v>
+        <v>48.41950041972445</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.02831058896492067</v>
+        <v>-0.1069618272911157</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>52.43606177835246</v>
+        <v>48.32967153443763</v>
       </c>
       <c r="C200" t="n">
-        <v>52.46715273082433</v>
+        <v>48.41759462789992</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.03109095247187099</v>
+        <v>-0.08792309346229388</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>52.44353671110824</v>
+        <v>48.33094471918476</v>
       </c>
       <c r="C201" t="n">
-        <v>52.4566909093351</v>
+        <v>48.3635222593523</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.01315419822685726</v>
+        <v>-0.03257754016753722</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>52.4504470614125</v>
+        <v>48.33731058280787</v>
       </c>
       <c r="C202" t="n">
-        <v>52.45670450891063</v>
+        <v>48.43290845471127</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.006257447498128954</v>
+        <v>-0.09559787190339364</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>54.26012870672186</v>
+        <v>48.34961653338333</v>
       </c>
       <c r="C203" t="n">
-        <v>54.29059061405405</v>
+        <v>48.39435071717922</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.03046190733218168</v>
+        <v>-0.04473418379588878</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>54.26161212561546</v>
+        <v>48.35532753985083</v>
       </c>
       <c r="C204" t="n">
-        <v>54.32255614540605</v>
+        <v>48.42589924753191</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.06094401979059683</v>
+        <v>-0.07057170768107568</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>54.26594531150408</v>
+        <v>48.36100975455491</v>
       </c>
       <c r="C205" t="n">
-        <v>54.3124015317698</v>
+        <v>48.48248439400979</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.04645622026572482</v>
+        <v>-0.1214746394548811</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>54.26627627751253</v>
+        <v>48.36334262884729</v>
       </c>
       <c r="C206" t="n">
-        <v>54.32754985039654</v>
+        <v>48.48902691779949</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.06127357288400503</v>
+        <v>-0.1256842889522005</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>54.27279591894467</v>
+        <v>48.42273700842713</v>
       </c>
       <c r="C207" t="n">
-        <v>54.34365204405189</v>
+        <v>48.44452480185914</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.07085612510721262</v>
+        <v>-0.02178779343201143</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>54.27905152204031</v>
+        <v>48.44339557793215</v>
       </c>
       <c r="C208" t="n">
-        <v>54.34676038779281</v>
+        <v>48.48661882302329</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.06770886575249335</v>
+        <v>-0.04322324509114139</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>54.28629399692004</v>
+        <v>48.48483408233361</v>
       </c>
       <c r="C209" t="n">
-        <v>54.39190289734272</v>
+        <v>48.41240700099901</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1056089004226877</v>
+        <v>0.07242708133460241</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>54.28679831797868</v>
+        <v>51.9608468518514</v>
       </c>
       <c r="C210" t="n">
-        <v>54.28705078213411</v>
+        <v>52.03719353267875</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.000252464155430232</v>
+        <v>-0.07634668082734919</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>54.30472748108086</v>
+        <v>51.97319651995694</v>
       </c>
       <c r="C211" t="n">
-        <v>54.33337139764983</v>
+        <v>52.16534993247116</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.02864391656896714</v>
+        <v>-0.1921534125142159</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>54.3164939988803</v>
+        <v>51.98595886296319</v>
       </c>
       <c r="C212" t="n">
-        <v>54.35822340446339</v>
+        <v>52.01063001101378</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.0417294055830908</v>
+        <v>-0.02467114805059367</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>54.3188332941181</v>
+        <v>52.03150674015956</v>
       </c>
       <c r="C213" t="n">
-        <v>54.32668712004586</v>
+        <v>52.07510784494509</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.007853825927760738</v>
+        <v>-0.04360110478553025</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>54.34550973982283</v>
+        <v>52.05222282453379</v>
       </c>
       <c r="C214" t="n">
-        <v>54.37076395792169</v>
+        <v>52.13000556299933</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02525421809885842</v>
+        <v>-0.07778273846554384</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>54.38883868537775</v>
+        <v>52.06520769935857</v>
       </c>
       <c r="C215" t="n">
-        <v>54.39224770310386</v>
+        <v>52.10898987510473</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.003409017726113461</v>
+        <v>-0.04378217574616627</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>54.45293090288119</v>
+        <v>52.08631860489709</v>
       </c>
       <c r="C216" t="n">
-        <v>54.61549646245425</v>
+        <v>52.11728498450297</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1625655595730535</v>
+        <v>-0.03096637960588566</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>54.50323749689382</v>
+        <v>52.1104292068658</v>
       </c>
       <c r="C217" t="n">
-        <v>54.5657068074064</v>
+        <v>52.15664314135891</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.06246931051257576</v>
+        <v>-0.04621393449311029</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>54.53490010447756</v>
+        <v>52.11425302749834</v>
       </c>
       <c r="C218" t="n">
-        <v>54.60648986563926</v>
+        <v>52.12448541591012</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.07158976116169669</v>
+        <v>-0.01023238841178653</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>54.5851614682332</v>
+        <v>52.14688196392243</v>
       </c>
       <c r="C219" t="n">
-        <v>54.63841051447854</v>
+        <v>52.16038444347278</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.0532490462453481</v>
+        <v>-0.01350247955034689</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>54.59273372137967</v>
+        <v>52.16703828823248</v>
       </c>
       <c r="C220" t="n">
-        <v>54.60653577128549</v>
+        <v>52.16036673839609</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.01380204990582001</v>
+        <v>0.006671549836397617</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>57.67938695874072</v>
+        <v>52.76491066245535</v>
       </c>
       <c r="C221" t="n">
-        <v>57.82821445213125</v>
+        <v>52.77274470379903</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1488274933905274</v>
+        <v>-0.007834041343684817</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>57.70138130092797</v>
+        <v>52.77263480957379</v>
       </c>
       <c r="C222" t="n">
-        <v>57.74199770075769</v>
+        <v>52.91063260854266</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.04061639982972309</v>
+        <v>-0.1379977989688683</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>57.73215823325766</v>
+        <v>52.78444108966507</v>
       </c>
       <c r="C223" t="n">
-        <v>57.76447593332738</v>
+        <v>52.93347259375776</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.03231770006971146</v>
+        <v>-0.1490315040926902</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>57.75174073976802</v>
+        <v>52.79088101339876</v>
       </c>
       <c r="C224" t="n">
-        <v>57.75900960048501</v>
+        <v>52.88587070288771</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.007268860716983738</v>
+        <v>-0.09498968948895481</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>57.75428039867229</v>
+        <v>52.83672361972484</v>
       </c>
       <c r="C225" t="n">
-        <v>57.76427268338769</v>
+        <v>52.92430862361311</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.009992284715401922</v>
+        <v>-0.08758500388827883</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>57.7599557836425</v>
+        <v>52.88537904657745</v>
       </c>
       <c r="C226" t="n">
-        <v>57.7868473627036</v>
+        <v>52.92999413048859</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.02689157906110751</v>
+        <v>-0.04461508391114677</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>57.76727796528062</v>
+        <v>52.89956739584715</v>
       </c>
       <c r="C227" t="n">
-        <v>57.83715333020865</v>
+        <v>52.9606803303129</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.06987536492803059</v>
+        <v>-0.06111293446575417</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>57.77158030159567</v>
+        <v>52.93829354713831</v>
       </c>
       <c r="C228" t="n">
-        <v>57.82865109610084</v>
+        <v>52.9644716003208</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.05707079450517227</v>
+        <v>-0.02617805318248401</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>57.80742451046457</v>
+        <v>52.95590147650038</v>
       </c>
       <c r="C229" t="n">
-        <v>57.81979424802699</v>
+        <v>52.96666891315675</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.01236973756241611</v>
+        <v>-0.01076743665637281</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>57.81115702504388</v>
+        <v>53.11853039868555</v>
       </c>
       <c r="C230" t="n">
-        <v>57.83874929328537</v>
+        <v>52.96694658377072</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.02759226824149152</v>
+        <v>0.1515838149148294</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>57.8121650470958</v>
+        <v>53.31320565783093</v>
       </c>
       <c r="C231" t="n">
-        <v>57.81241209133231</v>
+        <v>53.46884529329493</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.0002470442365023473</v>
+        <v>-0.1556396354639986</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>59.86380615337044</v>
+        <v>53.33814925630693</v>
       </c>
       <c r="C232" t="n">
-        <v>59.95926694501836</v>
+        <v>53.37764758269484</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.09546079164791621</v>
+        <v>-0.03949832638790696</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>59.8690854529847</v>
+        <v>53.34060710080631</v>
       </c>
       <c r="C233" t="n">
-        <v>59.9699769468525</v>
+        <v>53.45080596396206</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.100891493867806</v>
+        <v>-0.1101988631557518</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>59.88521031558563</v>
+        <v>53.35090290275397</v>
       </c>
       <c r="C234" t="n">
-        <v>59.96898244598409</v>
+        <v>53.50642837825039</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.08377213039845799</v>
+        <v>-0.1555254754964253</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>59.88610767646342</v>
+        <v>53.39583453171868</v>
       </c>
       <c r="C235" t="n">
-        <v>59.88927987743296</v>
+        <v>53.40640940482117</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.003172200969537187</v>
+        <v>-0.01057487310248462</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>59.93921589145626</v>
+        <v>53.39629376934334</v>
       </c>
       <c r="C236" t="n">
-        <v>59.96825430923715</v>
+        <v>53.42588757746058</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.02903841778088889</v>
+        <v>-0.02959380811724088</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>59.96839455036033</v>
+        <v>53.43340686287502</v>
       </c>
       <c r="C237" t="n">
-        <v>59.98090706443307</v>
+        <v>53.51346244324974</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01251251407273912</v>
+        <v>-0.08005558037472582</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>60.25375656739616</v>
+        <v>53.45703010995822</v>
       </c>
       <c r="C238" t="n">
-        <v>60.29972442686721</v>
+        <v>53.56215214488761</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.04596785947105531</v>
+        <v>-0.1051220349293942</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>60.2640123638916</v>
+        <v>53.45835828790754</v>
       </c>
       <c r="C239" t="n">
-        <v>60.29718311556942</v>
+        <v>53.60624907351788</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.03317075167781525</v>
+        <v>-0.1478907856103362</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>60.27091341001129</v>
+        <v>53.50150356041576</v>
       </c>
       <c r="C240" t="n">
-        <v>60.33335509353386</v>
+        <v>53.62494361992142</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.06244168352257162</v>
+        <v>-0.1234400595056613</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>60.28439442151515</v>
+        <v>53.50168987103292</v>
       </c>
       <c r="C241" t="n">
-        <v>60.35067698038737</v>
+        <v>53.4555314566699</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.06628255887222423</v>
+        <v>0.04615841436302048</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>60.28911681437965</v>
+        <v>53.50456964683975</v>
       </c>
       <c r="C242" t="n">
-        <v>60.35307828895206</v>
+        <v>53.61097516780494</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.06396147457240886</v>
+        <v>-0.1064055209651897</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>60.289848592367</v>
+        <v>53.52584585931347</v>
       </c>
       <c r="C243" t="n">
-        <v>60.30603643943692</v>
+        <v>53.58925936192428</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.01618784706991505</v>
+        <v>-0.06341350261080692</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>60.33728920598512</v>
+        <v>53.53989362839533</v>
       </c>
       <c r="C244" t="n">
-        <v>60.34551323378968</v>
+        <v>53.63456270277982</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.008224027804565992</v>
+        <v>-0.09466907438449113</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>60.36416027755048</v>
+        <v>53.55560257102626</v>
       </c>
       <c r="C245" t="n">
-        <v>60.38259919506648</v>
+        <v>53.62798670384643</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.01843891751600069</v>
+        <v>-0.07238413282016865</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>60.36979289880993</v>
+        <v>53.55587410456094</v>
       </c>
       <c r="C246" t="n">
-        <v>60.37481500238255</v>
+        <v>53.61865470548094</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.005022103572621006</v>
+        <v>-0.06278060092000004</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>60.37195258125483</v>
+        <v>53.55732150630629</v>
       </c>
       <c r="C247" t="n">
-        <v>60.37196264038572</v>
+        <v>53.64448715674641</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.005913089358046e-05</v>
+        <v>-0.08716565044012725</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>60.38462486706073</v>
+        <v>53.57945336765382</v>
       </c>
       <c r="C248" t="n">
-        <v>60.38774478945773</v>
+        <v>53.60284297337076</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.003119922396997765</v>
+        <v>-0.02338960571693605</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>66.87886327142132</v>
+        <v>53.58042268723937</v>
       </c>
       <c r="C249" t="n">
-        <v>66.94911727391909</v>
+        <v>53.61894168059259</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.07025400249776226</v>
+        <v>-0.03851899335322173</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>66.88378301790026</v>
+        <v>53.58432603021492</v>
       </c>
       <c r="C250" t="n">
-        <v>66.99920414505488</v>
+        <v>53.60600620756652</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.1154211271546188</v>
+        <v>-0.02168017735160532</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>66.88855775493565</v>
+        <v>53.58959823329852</v>
       </c>
       <c r="C251" t="n">
-        <v>66.98302550084072</v>
+        <v>53.59017930085917</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.094467745905078</v>
+        <v>-0.0005810675606525706</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>66.90057716409264</v>
+        <v>53.58971702814069</v>
       </c>
       <c r="C252" t="n">
-        <v>66.94562589111747</v>
+        <v>53.66531994970979</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.04504872702483453</v>
+        <v>-0.07560292156910009</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>66.9066625612225</v>
+        <v>53.59169745194593</v>
       </c>
       <c r="C253" t="n">
-        <v>66.93162519248303</v>
+        <v>53.6000054399608</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.02496263126052156</v>
+        <v>-0.00830798801487731</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>66.93452662467526</v>
+        <v>53.59401715454034</v>
       </c>
       <c r="C254" t="n">
-        <v>66.9571936786576</v>
+        <v>53.66253989110751</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.02266705398234592</v>
+        <v>-0.0685227365671679</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>66.94200343874914</v>
+        <v>53.59445336223695</v>
       </c>
       <c r="C255" t="n">
-        <v>66.96859432886136</v>
+        <v>53.61447683417224</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.02659089011221738</v>
+        <v>-0.0200234719352963</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>66.95373453579124</v>
+        <v>53.61662550506716</v>
       </c>
       <c r="C256" t="n">
-        <v>66.9552560398963</v>
+        <v>53.64710193088198</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.001521504105056692</v>
+        <v>-0.03047642581482535</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>66.9573862060697</v>
+        <v>53.67231531846583</v>
       </c>
       <c r="C257" t="n">
-        <v>66.97706137753261</v>
+        <v>53.72452416071012</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.01967517146290731</v>
+        <v>-0.05220884224428346</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>66.95974142741866</v>
+        <v>53.7104976480095</v>
       </c>
       <c r="C258" t="n">
-        <v>66.9856634490766</v>
+        <v>53.73537094495212</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.02592202165793367</v>
+        <v>-0.02487329694261575</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>66.97675860505251</v>
+        <v>53.74069750295737</v>
       </c>
       <c r="C259" t="n">
-        <v>66.97832835960688</v>
+        <v>53.74139603344216</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.001569754554367364</v>
+        <v>-0.0006985304847972884</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>67.006161556322</v>
+        <v>53.8828596624799</v>
       </c>
       <c r="C260" t="n">
-        <v>67.00830824674487</v>
+        <v>53.58883712311518</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.002146690422875963</v>
+        <v>0.2940225393647253</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>67.31549355741492</v>
+        <v>53.97803532637133</v>
       </c>
       <c r="C261" t="n">
-        <v>67.47652456762108</v>
+        <v>53.67805433857001</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.161031010206159</v>
+        <v>0.2999809878013195</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>67.32495549662221</v>
+        <v>55.24254283578289</v>
       </c>
       <c r="C262" t="n">
-        <v>67.4614811624074</v>
+        <v>55.27640240787974</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.1365256657851859</v>
+        <v>-0.0338595720968442</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>67.34435301717888</v>
+        <v>55.24514098012465</v>
       </c>
       <c r="C263" t="n">
-        <v>67.3968109839891</v>
+        <v>55.27429155180774</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.05245796681022341</v>
+        <v>-0.02915057168308266</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>67.3638655385999</v>
+        <v>55.24524889364284</v>
       </c>
       <c r="C264" t="n">
-        <v>67.47437387622969</v>
+        <v>55.34025721726915</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1105083376297955</v>
+        <v>-0.09500832362631684</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>67.39365156827617</v>
+        <v>55.26339499382807</v>
       </c>
       <c r="C265" t="n">
-        <v>67.39880542080347</v>
+        <v>55.45895648183644</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.005153852527300273</v>
+        <v>-0.1955614880083658</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>67.41993923192938</v>
+        <v>55.26419404641814</v>
       </c>
       <c r="C266" t="n">
-        <v>67.47502582181052</v>
+        <v>55.38391509982116</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.05508658988114234</v>
+        <v>-0.1197210534030191</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>67.42293743292613</v>
+        <v>55.27624232720108</v>
       </c>
       <c r="C267" t="n">
-        <v>67.45933795028908</v>
+        <v>55.33694045321915</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.03640051736294936</v>
+        <v>-0.06069812601806746</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>67.43201477235513</v>
+        <v>55.30949369316844</v>
       </c>
       <c r="C268" t="n">
-        <v>67.47132427015346</v>
+        <v>55.38683089666148</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.03930949779832815</v>
+        <v>-0.07733720349303752</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>67.4381864636586</v>
+        <v>55.33720819153894</v>
       </c>
       <c r="C269" t="n">
-        <v>67.44995302293512</v>
+        <v>55.44594984296308</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.01176655927652348</v>
+        <v>-0.1087416514241397</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>67.4437982378502</v>
+        <v>55.36620831245223</v>
       </c>
       <c r="C270" t="n">
-        <v>67.45284356984963</v>
+        <v>55.44985982056478</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.009045331999431028</v>
+        <v>-0.08365150811254551</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>67.45350265134762</v>
+        <v>55.38465624084917</v>
       </c>
       <c r="C271" t="n">
-        <v>67.47402311463274</v>
+        <v>55.44893120668511</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.02052046328512347</v>
+        <v>-0.06427496583593495</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>67.46995633663447</v>
+        <v>55.38517640832553</v>
       </c>
       <c r="C272" t="n">
-        <v>67.47309863926034</v>
+        <v>55.41280354606887</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.003142302625875004</v>
+        <v>-0.02762713774333037</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>67.50981181779481</v>
+        <v>55.39970672131986</v>
       </c>
       <c r="C273" t="n">
-        <v>67.58500039058985</v>
+        <v>55.42076131936093</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.07518857279504232</v>
+        <v>-0.02105459804107568</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>67.53021548339943</v>
+        <v>55.41411183790268</v>
       </c>
       <c r="C274" t="n">
-        <v>67.61047469183272</v>
+        <v>55.44971622143117</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.08025920843329004</v>
+        <v>-0.03560438352848649</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>67.54156144523388</v>
+        <v>56.01917028487956</v>
       </c>
       <c r="C275" t="n">
-        <v>67.62734719902529</v>
+        <v>56.07469754684369</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.08578575379141284</v>
+        <v>-0.05552726196413715</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>67.55872001691569</v>
+        <v>56.04893259625157</v>
       </c>
       <c r="C276" t="n">
-        <v>67.67327142495645</v>
+        <v>56.17304399954058</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.1145514080407679</v>
+        <v>-0.1241114032890067</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>67.56056638968865</v>
+        <v>56.0499935853776</v>
       </c>
       <c r="C277" t="n">
-        <v>67.64896393125028</v>
+        <v>56.05836475878284</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08839754156163337</v>
+        <v>-0.008371173405237187</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>67.57468585400069</v>
+        <v>56.08756440816626</v>
       </c>
       <c r="C278" t="n">
-        <v>67.59533539841591</v>
+        <v>56.22415398465406</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.02064954441522104</v>
+        <v>-0.1365895764878005</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>67.58553376190849</v>
+        <v>56.12440592984523</v>
       </c>
       <c r="C279" t="n">
-        <v>67.60817637770872</v>
+        <v>56.18676138669171</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.02264261580022264</v>
+        <v>-0.06235545684648258</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>67.59138932819401</v>
+        <v>56.14654245175412</v>
       </c>
       <c r="C280" t="n">
-        <v>67.64700157613065</v>
+        <v>56.21768473956244</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.05561224793663655</v>
+        <v>-0.07114228780832121</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>67.61250516613636</v>
+        <v>56.16119476823857</v>
       </c>
       <c r="C281" t="n">
-        <v>67.6614823206138</v>
+        <v>56.21244311021852</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.04897715447744133</v>
+        <v>-0.05124834197994232</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>67.866838999896</v>
+        <v>57.03981267347764</v>
       </c>
       <c r="C282" t="n">
-        <v>67.9081993240429</v>
+        <v>57.12411164497859</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.04136032414689339</v>
+        <v>-0.08429897150094945</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>67.87383486468626</v>
+        <v>57.11402550966701</v>
       </c>
       <c r="C283" t="n">
-        <v>67.99641981183433</v>
+        <v>57.2077791338166</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.12258494714807</v>
+        <v>-0.09375362414959199</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>67.87826967846783</v>
+        <v>57.1232227336368</v>
       </c>
       <c r="C284" t="n">
-        <v>67.95599536274848</v>
+        <v>57.15193845307799</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.07772568428065085</v>
+        <v>-0.02871571944118756</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>67.89957770251145</v>
+        <v>57.14602487396084</v>
       </c>
       <c r="C285" t="n">
-        <v>67.97381592923367</v>
+        <v>57.16407740632575</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.07423822672221547</v>
+        <v>-0.01805253236490501</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>67.92119272143586</v>
+        <v>57.15095944095503</v>
       </c>
       <c r="C286" t="n">
-        <v>67.97448086268093</v>
+        <v>57.160428627752</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.0532881412450763</v>
+        <v>-0.009469186796962958</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>67.92426968653048</v>
+        <v>57.21276591101103</v>
       </c>
       <c r="C287" t="n">
-        <v>67.93117084780714</v>
+        <v>57.24007174248899</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.00690116127665874</v>
+        <v>-0.0273058314779675</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>67.93068450816398</v>
+        <v>57.22990698703146</v>
       </c>
       <c r="C288" t="n">
-        <v>67.93164836273066</v>
+        <v>57.23132272696294</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.0009638545666774689</v>
+        <v>-0.001415739931481141</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>67.93360993133477</v>
+        <v>57.89644541565615</v>
       </c>
       <c r="C289" t="n">
-        <v>67.94885703626647</v>
+        <v>57.97346039016308</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.01524710493170289</v>
+        <v>-0.07701497450692329</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>67.94903348703826</v>
+        <v>57.90146501787412</v>
       </c>
       <c r="C290" t="n">
-        <v>67.98351029325177</v>
+        <v>58.01460164224213</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.03447680621350457</v>
+        <v>-0.1131366243680176</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>67.96969602494062</v>
+        <v>57.90918473792295</v>
       </c>
       <c r="C291" t="n">
-        <v>67.9923947857442</v>
+        <v>57.93528049628191</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.02269876080357847</v>
+        <v>-0.02609575835896294</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>71.4312823571332</v>
+        <v>57.91955659562928</v>
       </c>
       <c r="C292" t="n">
-        <v>71.59460767236172</v>
+        <v>58.01074538612832</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.1633253152285192</v>
+        <v>-0.09118879049903938</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>71.45267197082599</v>
+        <v>57.92406597230615</v>
       </c>
       <c r="C293" t="n">
-        <v>71.59292805165362</v>
+        <v>58.04273250911107</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.1402560808276263</v>
+        <v>-0.1186665368049233</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>71.46457023038597</v>
+        <v>57.93967530087345</v>
       </c>
       <c r="C294" t="n">
-        <v>71.51914999165592</v>
+        <v>58.06088701068501</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.05457976126994879</v>
+        <v>-0.1212117098115613</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>71.46982161956871</v>
+        <v>57.96153257248589</v>
       </c>
       <c r="C295" t="n">
-        <v>71.47422035421293</v>
+        <v>58.01393937777681</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.004398734644226465</v>
+        <v>-0.05240680529092145</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>71.47938498182535</v>
+        <v>57.97265602711108</v>
       </c>
       <c r="C296" t="n">
-        <v>71.56662896658676</v>
+        <v>57.98045797537073</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.08724398476141459</v>
+        <v>-0.007801948259654523</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>71.48822047220463</v>
+        <v>58.00855870433865</v>
       </c>
       <c r="C297" t="n">
-        <v>71.58875136659809</v>
+        <v>58.0475565782067</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.100530894393458</v>
+        <v>-0.03899787386805542</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>71.49979362315848</v>
+        <v>58.01316398060389</v>
       </c>
       <c r="C298" t="n">
-        <v>71.5278235862086</v>
+        <v>58.02734134886144</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.02802996305011618</v>
+        <v>-0.01417736825754901</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>71.50274208065389</v>
+        <v>58.04666234048694</v>
       </c>
       <c r="C299" t="n">
-        <v>71.55862350374123</v>
+        <v>58.08993008168729</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.05588142308734234</v>
+        <v>-0.04326774120035282</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>71.51932251841309</v>
+        <v>58.0788587613804</v>
       </c>
       <c r="C300" t="n">
-        <v>71.6049190788335</v>
+        <v>58.08148643909964</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.08559656042041297</v>
+        <v>-0.002627677719246435</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>71.55515400288294</v>
+        <v>58.16189043055736</v>
       </c>
       <c r="C301" t="n">
-        <v>71.55771459753807</v>
+        <v>58.0303790404537</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.002560594655122372</v>
+        <v>0.131511390103654</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>71.55961410943385</v>
+        <v>58.24992419528093</v>
       </c>
       <c r="C302" t="n">
-        <v>71.5902580104289</v>
+        <v>58.05344329633935</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.03064390099504521</v>
+        <v>0.1964808989415801</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>71.58534699022492</v>
+        <v>61.18700476705512</v>
       </c>
       <c r="C303" t="n">
-        <v>71.60158152267255</v>
+        <v>61.37999200441414</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.01623453244762629</v>
+        <v>-0.19298723735902</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>73.13132210670682</v>
+        <v>61.20660782252786</v>
       </c>
       <c r="C304" t="n">
-        <v>73.27770365105705</v>
+        <v>61.29386294215786</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.1463815443502341</v>
+        <v>-0.08725511963000088</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>73.15003198820723</v>
+        <v>61.22815110355233</v>
       </c>
       <c r="C305" t="n">
-        <v>73.15979038714519</v>
+        <v>61.24290711954815</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.009758398937961488</v>
+        <v>-0.01475601599582177</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>73.15795358480466</v>
+        <v>61.23466875274811</v>
       </c>
       <c r="C306" t="n">
-        <v>73.18566983164648</v>
+        <v>61.25077247463012</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.02771624684181972</v>
+        <v>-0.01610372188200415</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>73.15847410798858</v>
+        <v>61.24675949502378</v>
       </c>
       <c r="C307" t="n">
-        <v>73.22774118163871</v>
+        <v>61.29390333769388</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.06926707365012419</v>
+        <v>-0.04714384267010274</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>73.17198125581093</v>
+        <v>61.2546322503383</v>
       </c>
       <c r="C308" t="n">
-        <v>73.17882223025866</v>
+        <v>61.33950969323946</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.006840974447726467</v>
+        <v>-0.08487744290116694</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>73.18155720918351</v>
+        <v>61.25981791407121</v>
       </c>
       <c r="C309" t="n">
-        <v>73.28251762724106</v>
+        <v>61.31001447231202</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.1009604180575536</v>
+        <v>-0.05019655824080616</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>73.18230558175814</v>
+        <v>61.30331165263274</v>
       </c>
       <c r="C310" t="n">
-        <v>73.26712833242533</v>
+        <v>61.39689120405896</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.08482275066718614</v>
+        <v>-0.09357955142622387</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>73.18287384632882</v>
+        <v>61.33655500163309</v>
       </c>
       <c r="C311" t="n">
-        <v>73.21722580880088</v>
+        <v>61.34215738498658</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.03435196247205852</v>
+        <v>-0.005602383353483731</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>73.19023534698161</v>
+        <v>61.34934286566166</v>
       </c>
       <c r="C312" t="n">
-        <v>73.22820508337301</v>
+        <v>61.36612188144818</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.03796973639140333</v>
+        <v>-0.01677901578651841</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>73.23189020295574</v>
+        <v>61.38119367684916</v>
       </c>
       <c r="C313" t="n">
-        <v>73.24438643125352</v>
+        <v>61.35599419887937</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.01249622829777763</v>
+        <v>0.02519947796979238</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>73.23401269230537</v>
+        <v>61.65420311001817</v>
       </c>
       <c r="C314" t="n">
-        <v>73.24895407521325</v>
+        <v>61.38684658836043</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.01494138290787816</v>
+        <v>0.2673565216577387</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>73.28131158128325</v>
+        <v>63.00075269163554</v>
       </c>
       <c r="C315" t="n">
-        <v>73.28311888642574</v>
+        <v>63.12380755282239</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.001807305142492055</v>
+        <v>-0.1230548611868514</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>73.50428876009848</v>
+        <v>63.012242013868</v>
       </c>
       <c r="C316" t="n">
-        <v>73.56444673281275</v>
+        <v>63.14983170920459</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.06015797271427914</v>
+        <v>-0.1375896953365867</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>73.50437557018036</v>
+        <v>63.07977003297703</v>
       </c>
       <c r="C317" t="n">
-        <v>73.58045887861246</v>
+        <v>63.08657306859819</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.07608330843210354</v>
+        <v>-0.006803035621160802</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>73.5263200263076</v>
+        <v>63.09058975884761</v>
       </c>
       <c r="C318" t="n">
-        <v>73.55961646889209</v>
+        <v>63.11898593026445</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.03329644258448639</v>
+        <v>-0.02839617141683703</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>73.54129629473861</v>
+        <v>63.10727310217465</v>
       </c>
       <c r="C319" t="n">
-        <v>73.56441109285774</v>
+        <v>63.16287023651008</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.0231147981191242</v>
+        <v>-0.05559713433542868</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>73.56912018886393</v>
+        <v>67.15069153246621</v>
       </c>
       <c r="C320" t="n">
-        <v>73.57510584917785</v>
+        <v>67.28821846952479</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.005985660313911012</v>
+        <v>-0.1375269370585812</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>73.57505330436197</v>
+        <v>67.1744709698694</v>
       </c>
       <c r="C321" t="n">
-        <v>73.64280493088782</v>
+        <v>67.26116008625389</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.06775162652584754</v>
+        <v>-0.08668911638449117</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>73.61366214869722</v>
+        <v>67.21364149315399</v>
       </c>
       <c r="C322" t="n">
-        <v>73.63002594294726</v>
+        <v>67.3080412683023</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.01636379425004009</v>
+        <v>-0.0943997751483181</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>75.57974806258272</v>
+        <v>67.24039433519081</v>
       </c>
       <c r="C323" t="n">
-        <v>75.72372169933789</v>
+        <v>67.32535199005359</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.1439736367551632</v>
+        <v>-0.08495765486277662</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>75.59179707303981</v>
+        <v>67.24772923724635</v>
       </c>
       <c r="C324" t="n">
-        <v>75.62740363604779</v>
+        <v>67.2710097865999</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.03560656300797405</v>
+        <v>-0.02328054935355794</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>75.60253521390628</v>
+        <v>67.26057228547445</v>
       </c>
       <c r="C325" t="n">
-        <v>75.61904945037148</v>
+        <v>67.27905561668095</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.01651423646519845</v>
+        <v>-0.0184833312064967</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>75.62000522048255</v>
+        <v>67.26884212920373</v>
       </c>
       <c r="C326" t="n">
-        <v>75.63384938694588</v>
+        <v>67.28685572167572</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.01384416646332909</v>
+        <v>-0.01801359247198775</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>75.63551195460974</v>
+        <v>67.28394451767254</v>
       </c>
       <c r="C327" t="n">
-        <v>75.71770779800758</v>
+        <v>67.23642413337926</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.08219584339784092</v>
+        <v>0.04752038429327854</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>75.66195314099053</v>
+        <v>67.28826905678443</v>
       </c>
       <c r="C328" t="n">
-        <v>75.68279954115506</v>
+        <v>67.31392200615832</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.02084640016452965</v>
+        <v>-0.0256529493738924</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>75.66709278448725</v>
+        <v>67.28975826651401</v>
       </c>
       <c r="C329" t="n">
-        <v>75.6890112327049</v>
+        <v>67.31999802597977</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.02191844821764732</v>
+        <v>-0.03023975946575774</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>75.68334054060371</v>
+        <v>67.29389238306472</v>
       </c>
       <c r="C330" t="n">
-        <v>75.72741761257269</v>
+        <v>67.27231603834851</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.04407707196898514</v>
+        <v>0.02157634471620895</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>80.38512075451953</v>
+        <v>67.31578622706076</v>
       </c>
       <c r="C331" t="n">
-        <v>80.48281383849633</v>
+        <v>67.31819372162512</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.0976930839767931</v>
+        <v>-0.002407494564366175</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>80.4039135946022</v>
+        <v>67.48550234724047</v>
       </c>
       <c r="C332" t="n">
-        <v>80.46310076424977</v>
+        <v>67.30627830403793</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.05918716964757209</v>
+        <v>0.179224043202538</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>80.42592193542517</v>
+        <v>67.54083419140063</v>
       </c>
       <c r="C333" t="n">
-        <v>80.46208870070792</v>
+        <v>67.29311997717627</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.03616676528275775</v>
+        <v>0.2477142142243594</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>80.45982582412135</v>
+        <v>69.2039685931492</v>
       </c>
       <c r="C334" t="n">
-        <v>80.52753647534583</v>
+        <v>69.26997929727042</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.06771065122447339</v>
+        <v>-0.06601070412122567</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>80.4644767286638</v>
+        <v>69.20748515236916</v>
       </c>
       <c r="C335" t="n">
-        <v>80.53909499910384</v>
+        <v>69.40849432370567</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.0746182704400411</v>
+        <v>-0.2010091713365085</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>80.47214414239674</v>
+        <v>69.21116880032127</v>
       </c>
       <c r="C336" t="n">
-        <v>80.54019256227741</v>
+        <v>69.24435191535808</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.06804841988066812</v>
+        <v>-0.03318311503680604</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>80.47576220239509</v>
+        <v>69.24433098591057</v>
       </c>
       <c r="C337" t="n">
-        <v>80.54241962722912</v>
+        <v>69.3382945930484</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.06665742483403392</v>
+        <v>-0.09396360713783736</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>80.47646192055123</v>
+        <v>69.24994090383258</v>
       </c>
       <c r="C338" t="n">
-        <v>80.51053880126851</v>
+        <v>69.40412302442142</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.03407688071727932</v>
+        <v>-0.1541821205888425</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>80.47869785269285</v>
+        <v>69.25784879253992</v>
       </c>
       <c r="C339" t="n">
-        <v>80.52917997503421</v>
+        <v>69.28366834498883</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.05048212234136429</v>
+        <v>-0.02581955244890821</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>80.48443450628953</v>
+        <v>69.28670091662234</v>
       </c>
       <c r="C340" t="n">
-        <v>80.53542252829143</v>
+        <v>69.41302288082312</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.05098802200190278</v>
+        <v>-0.126321964200784</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>80.65570104069688</v>
+        <v>69.29279432400855</v>
       </c>
       <c r="C341" t="n">
-        <v>80.791388451546</v>
+        <v>69.41180891444606</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.1356874108491155</v>
+        <v>-0.1190145904375015</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>80.6756371456429</v>
+        <v>69.32018968883688</v>
       </c>
       <c r="C342" t="n">
-        <v>80.69393885488695</v>
+        <v>69.39958073676857</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.0183017092440565</v>
+        <v>-0.07939104793169349</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>80.67963163997911</v>
+        <v>69.35959105942523</v>
       </c>
       <c r="C343" t="n">
-        <v>80.70995743512677</v>
+        <v>69.40324257535188</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.03032579514766098</v>
+        <v>-0.04365151592665484</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>80.69573940016193</v>
+        <v>69.62780765677188</v>
       </c>
       <c r="C344" t="n">
-        <v>80.76560401451711</v>
+        <v>69.38990365259582</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.06986461435518265</v>
+        <v>0.2379040041760589</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>80.70451239649813</v>
+        <v>72.29409855043268</v>
       </c>
       <c r="C345" t="n">
-        <v>80.81883390447025</v>
+        <v>72.30491254719746</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.1143215079721216</v>
+        <v>-0.01081399676478156</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>80.70910920637121</v>
+        <v>72.29725022837061</v>
       </c>
       <c r="C346" t="n">
-        <v>80.77971418970066</v>
+        <v>72.42769386266735</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.07060498332944576</v>
+        <v>-0.1304436342967392</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>80.72425130335182</v>
+        <v>72.29810344005186</v>
       </c>
       <c r="C347" t="n">
-        <v>80.7268082729876</v>
+        <v>72.37676245691993</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.002556969635776341</v>
+        <v>-0.07865901686807319</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>80.73231722544929</v>
+        <v>72.30844831958792</v>
       </c>
       <c r="C348" t="n">
-        <v>80.79971130523782</v>
+        <v>72.32910471200358</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.06739407978852796</v>
+        <v>-0.02065639241565975</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>80.73356690761791</v>
+        <v>72.32026034582385</v>
       </c>
       <c r="C349" t="n">
-        <v>80.7945183893076</v>
+        <v>72.35404375840498</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.06095148168968478</v>
+        <v>-0.03378341258112982</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>80.73997183594724</v>
+        <v>72.33094588631666</v>
       </c>
       <c r="C350" t="n">
-        <v>80.74267702869612</v>
+        <v>72.44296259738422</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.002705192748877039</v>
+        <v>-0.1120167110675681</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>80.75907701118835</v>
+        <v>72.3452675463525</v>
       </c>
       <c r="C351" t="n">
-        <v>80.81129914224331</v>
+        <v>72.3516438273097</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.0522221310549611</v>
+        <v>-0.006376280957198333</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>80.76632894853249</v>
+        <v>72.38100447382634</v>
       </c>
       <c r="C352" t="n">
-        <v>80.77751509130424</v>
+        <v>72.39209238069722</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.01118614277174856</v>
+        <v>-0.01108790687088401</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>80.79199860995502</v>
+        <v>72.39413939692868</v>
       </c>
       <c r="C353" t="n">
-        <v>80.81233700766226</v>
+        <v>72.49930934503152</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.0203383977072491</v>
+        <v>-0.1051699481028407</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>81.02682020088152</v>
+        <v>72.40093765264595</v>
       </c>
       <c r="C354" t="n">
-        <v>80.77660891412124</v>
+        <v>72.47358995582776</v>
       </c>
       <c r="D354" t="n">
-        <v>0.2502112867602762</v>
+        <v>-0.07265230318181182</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>81.53537136433168</v>
+        <v>72.41957484765167</v>
       </c>
       <c r="C355" t="n">
-        <v>81.53714556920497</v>
+        <v>72.44762265373113</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.001774204873285612</v>
+        <v>-0.02804780607945645</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>81.57633360308134</v>
+        <v>72.42867160369694</v>
       </c>
       <c r="C356" t="n">
-        <v>81.66055570644028</v>
+        <v>72.50765120306293</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.08422210335893965</v>
+        <v>-0.07897959936599364</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>81.59580022672274</v>
+        <v>72.49962525304099</v>
       </c>
       <c r="C357" t="n">
-        <v>81.62047228744213</v>
+        <v>72.51261930909537</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.02467206071938222</v>
+        <v>-0.01299405605438153</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>81.60622666743382</v>
+        <v>72.60308701218661</v>
       </c>
       <c r="C358" t="n">
-        <v>81.62989128348703</v>
+        <v>72.41881622752184</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.02366461605321035</v>
+        <v>0.1842707846647613</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>81.63666787496132</v>
+        <v>73.13026179218741</v>
       </c>
       <c r="C359" t="n">
-        <v>81.65689372236008</v>
+        <v>72.47175661931681</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.02022584739876265</v>
+        <v>0.6585051728706048</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>82.45797839157947</v>
+        <v>73.46809501270526</v>
       </c>
       <c r="C360" t="n">
-        <v>82.4882837450873</v>
+        <v>73.5450060868405</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.0303053535078277</v>
+        <v>-0.07691107413523923</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>82.49928974124101</v>
+        <v>73.4871610513374</v>
       </c>
       <c r="C361" t="n">
-        <v>82.5401926880789</v>
+        <v>73.51471074580134</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.04090294683788898</v>
+        <v>-0.02754969446394284</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>82.50863605998521</v>
+        <v>73.49271255524899</v>
       </c>
       <c r="C362" t="n">
-        <v>82.54302559118946</v>
+        <v>73.58598679005847</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.03438953120425481</v>
+        <v>-0.09327423480948482</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>82.50866804045907</v>
+        <v>73.51317058754145</v>
       </c>
       <c r="C363" t="n">
-        <v>82.57965317192854</v>
+        <v>73.66339846828933</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.07098513146947028</v>
+        <v>-0.1502278807478774</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>82.52060044418248</v>
+        <v>73.52132582296186</v>
       </c>
       <c r="C364" t="n">
-        <v>82.5813747957277</v>
+        <v>73.56697754969611</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.06077435154521993</v>
+        <v>-0.04565172673424911</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>82.52106798371163</v>
+        <v>73.52381396836465</v>
       </c>
       <c r="C365" t="n">
-        <v>82.61830266675567</v>
+        <v>73.5261449280062</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.09723468304403582</v>
+        <v>-0.002330959641554387</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>82.53276277079109</v>
+        <v>73.55655245293731</v>
       </c>
       <c r="C366" t="n">
-        <v>82.6203939047646</v>
+        <v>73.55752650997339</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.08763113397350253</v>
+        <v>-0.0009740570360747824</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>82.55746930900952</v>
+        <v>73.57689024451766</v>
       </c>
       <c r="C367" t="n">
-        <v>82.59303194920165</v>
+        <v>73.54565511005346</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.03556264019212563</v>
+        <v>0.03123513446419679</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>82.56065470402238</v>
+        <v>73.58161839991827</v>
       </c>
       <c r="C368" t="n">
-        <v>82.5703244425423</v>
+        <v>73.59687971990326</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.009669738519917814</v>
+        <v>-0.0152613199849867</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>82.57857562859382</v>
+        <v>73.59959582421305</v>
       </c>
       <c r="C369" t="n">
-        <v>82.59436431744091</v>
+        <v>73.64648716643785</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.01578868884708129</v>
+        <v>-0.04689134222479652</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>82.58646882646426</v>
+        <v>75.2581686534283</v>
       </c>
       <c r="C370" t="n">
-        <v>82.62040726490685</v>
+        <v>75.32716094647695</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.03393843844258981</v>
+        <v>-0.06899229304865173</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>82.6088755356019</v>
+        <v>75.26493964864538</v>
       </c>
       <c r="C371" t="n">
-        <v>82.62418220179944</v>
+        <v>75.4036621805573</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.01530666619754584</v>
+        <v>-0.1387225319119239</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>82.61400269395703</v>
+        <v>75.26996855007793</v>
       </c>
       <c r="C372" t="n">
-        <v>82.61544588545996</v>
+        <v>75.29126809445918</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.001443191502929153</v>
+        <v>-0.02129954438125026</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>82.6276594677869</v>
+        <v>75.32465776132096</v>
       </c>
       <c r="C373" t="n">
-        <v>82.63111740025515</v>
+        <v>75.45616138667049</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.003457932468251101</v>
+        <v>-0.1315036253495236</v>
       </c>
     </row>
     <row r="374">
@@ -5663,13 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>84.91207270168566</v>
+        <v>75.32478459715716</v>
       </c>
       <c r="C374" t="n">
-        <v>85.02550641589292</v>
+        <v>75.44956115430935</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.113433714207261</v>
+        <v>-0.1247765571521882</v>
       </c>
     </row>
     <row r="375">
@@ -5677,13 +5677,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>84.93591829499898</v>
+        <v>75.33561983206464</v>
       </c>
       <c r="C375" t="n">
-        <v>85.02717959839927</v>
+        <v>75.34102692796171</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.09126130340028737</v>
+        <v>-0.00540709589706978</v>
       </c>
     </row>
     <row r="376">
@@ -5691,13 +5691,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>84.94168982722749</v>
+        <v>75.34749076321988</v>
       </c>
       <c r="C376" t="n">
-        <v>85.04999745566271</v>
+        <v>75.43080097391098</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.1083076284352131</v>
+        <v>-0.08331021069109568</v>
       </c>
     </row>
     <row r="377">
@@ -5705,13 +5705,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>84.97546144716017</v>
+        <v>75.40837064287652</v>
       </c>
       <c r="C377" t="n">
-        <v>85.00524509807596</v>
+        <v>75.45846499178413</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.02978365091578894</v>
+        <v>-0.05009434890760645</v>
       </c>
     </row>
     <row r="378">
@@ -5719,13 +5719,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>84.97799341039146</v>
+        <v>75.43078281818249</v>
       </c>
       <c r="C378" t="n">
-        <v>85.03471722399821</v>
+        <v>75.45720851983501</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.05672381360675161</v>
+        <v>-0.02642570165251357</v>
       </c>
     </row>
     <row r="379">
@@ -5733,13 +5733,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>85.00283897998075</v>
+        <v>75.45592366747414</v>
       </c>
       <c r="C379" t="n">
-        <v>85.0821033918841</v>
+        <v>75.48002111715786</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.07926441190335254</v>
+        <v>-0.02409744968372252</v>
       </c>
     </row>
     <row r="380">
@@ -5747,13 +5747,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>85.01183981376232</v>
+        <v>75.48516609738735</v>
       </c>
       <c r="C380" t="n">
-        <v>85.08022079939762</v>
+        <v>75.44676764439396</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.06838098563530082</v>
+        <v>0.03839845299339117</v>
       </c>
     </row>
     <row r="381">
@@ -5761,13 +5761,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>85.0651183884398</v>
+        <v>76.33464142600366</v>
       </c>
       <c r="C381" t="n">
-        <v>85.06797066182595</v>
+        <v>76.52337841328129</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.00285227338615357</v>
+        <v>-0.1887369872776361</v>
       </c>
     </row>
     <row r="382">
@@ -5775,13 +5775,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>85.07426002147469</v>
+        <v>76.34319350799771</v>
       </c>
       <c r="C382" t="n">
-        <v>85.07977762653904</v>
+        <v>76.4131939503626</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.00551760506435528</v>
+        <v>-0.07000044236488634</v>
       </c>
     </row>
     <row r="383">
@@ -5789,13 +5789,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>85.25164578675567</v>
+        <v>76.35025874912402</v>
       </c>
       <c r="C383" t="n">
-        <v>85.07622852759648</v>
+        <v>76.50337376956718</v>
       </c>
       <c r="D383" t="n">
-        <v>0.1754172591591896</v>
+        <v>-0.1531150204431526</v>
       </c>
     </row>
     <row r="384">
@@ -5803,13 +5803,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>86.38874758010336</v>
+        <v>76.36790047999173</v>
       </c>
       <c r="C384" t="n">
-        <v>86.48246756457672</v>
+        <v>76.43037930253661</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.09371998447336694</v>
+        <v>-0.06247882254487536</v>
       </c>
     </row>
     <row r="385">
@@ -5817,13 +5817,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>86.39309089087379</v>
+        <v>76.38177957308424</v>
       </c>
       <c r="C385" t="n">
-        <v>86.52796188281671</v>
+        <v>76.5269837894528</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.1348709919429183</v>
+        <v>-0.1452042163685547</v>
       </c>
     </row>
     <row r="386">
@@ -5831,13 +5831,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>86.41076034361839</v>
+        <v>76.38522576775608</v>
       </c>
       <c r="C386" t="n">
-        <v>86.52515344211139</v>
+        <v>76.53834422198412</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.1143930984929966</v>
+        <v>-0.1531184542280357</v>
       </c>
     </row>
     <row r="387">
@@ -5845,13 +5845,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>86.41394368923021</v>
+        <v>76.40509170431157</v>
       </c>
       <c r="C387" t="n">
-        <v>86.43161337988468</v>
+        <v>76.51469586795376</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.01766969065447199</v>
+        <v>-0.1096041636421887</v>
       </c>
     </row>
     <row r="388">
@@ -5859,13 +5859,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>86.42833632134371</v>
+        <v>76.40985024784528</v>
       </c>
       <c r="C388" t="n">
-        <v>86.45766904360484</v>
+        <v>76.44512318543526</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.02933272226113104</v>
+        <v>-0.03527293758997985</v>
       </c>
     </row>
     <row r="389">
@@ -5873,13 +5873,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>86.46583972446471</v>
+        <v>76.42165102703396</v>
       </c>
       <c r="C389" t="n">
-        <v>86.46707824798953</v>
+        <v>76.46285935575827</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.001238523524818902</v>
+        <v>-0.04120832872430924</v>
       </c>
     </row>
     <row r="390">
@@ -5887,13 +5887,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>86.49701434291413</v>
+        <v>76.46681742782326</v>
       </c>
       <c r="C390" t="n">
-        <v>86.51793665931535</v>
+        <v>76.53416371731645</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.02092231640122577</v>
+        <v>-0.06734628949318733</v>
       </c>
     </row>
     <row r="391">
@@ -5901,13 +5901,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>86.50518276373427</v>
+        <v>76.52629992203804</v>
       </c>
       <c r="C391" t="n">
-        <v>86.52946259355259</v>
+        <v>76.54439980103906</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.02427982981832599</v>
+        <v>-0.01809987900102783</v>
       </c>
     </row>
     <row r="392">
@@ -5915,13 +5915,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>86.51381163343692</v>
+        <v>76.67641400724624</v>
       </c>
       <c r="C392" t="n">
-        <v>86.53088139557721</v>
+        <v>76.51881001634391</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.0170697621402951</v>
+        <v>0.1576039909023308</v>
       </c>
     </row>
     <row r="393">
@@ -5929,13 +5929,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>88.73838650887055</v>
+        <v>82.76442868767296</v>
       </c>
       <c r="C393" t="n">
-        <v>88.89099852959889</v>
+        <v>82.87295415217652</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.1526120207283412</v>
+        <v>-0.1085254645035576</v>
       </c>
     </row>
     <row r="394">
@@ -5943,13 +5943,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>88.76153359551282</v>
+        <v>82.78330761322589</v>
       </c>
       <c r="C394" t="n">
-        <v>88.87081870218702</v>
+        <v>82.8509873017866</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.1092851066742071</v>
+        <v>-0.06767968856071604</v>
       </c>
     </row>
     <row r="395">
@@ -5957,13 +5957,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>88.76325015384646</v>
+        <v>82.78797639337076</v>
       </c>
       <c r="C395" t="n">
-        <v>88.86750693602711</v>
+        <v>82.89346670670011</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.1042567821806557</v>
+        <v>-0.105490313329355</v>
       </c>
     </row>
     <row r="396">
@@ -5971,13 +5971,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>88.78366347122956</v>
+        <v>82.79515387746012</v>
       </c>
       <c r="C396" t="n">
-        <v>88.90870256125363</v>
+        <v>82.84537865134374</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.1250390900240745</v>
+        <v>-0.05022477388361324</v>
       </c>
     </row>
     <row r="397">
@@ -5985,13 +5985,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>88.79625391711637</v>
+        <v>82.80519958366789</v>
       </c>
       <c r="C397" t="n">
-        <v>88.87398297004003</v>
+        <v>82.93799869547978</v>
       </c>
       <c r="D397" t="n">
-        <v>-0.07772905292365806</v>
+        <v>-0.1327991118118916</v>
       </c>
     </row>
     <row r="398">
@@ -5999,13 +5999,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>88.7965742027334</v>
+        <v>82.83393303244962</v>
       </c>
       <c r="C398" t="n">
-        <v>88.8352257314051</v>
+        <v>82.91229394888605</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.03865152867170707</v>
+        <v>-0.07836091643642362</v>
       </c>
     </row>
     <row r="399">
@@ -6013,13 +6013,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>88.80722008202385</v>
+        <v>84.33563301967301</v>
       </c>
       <c r="C399" t="n">
-        <v>88.90501108038872</v>
+        <v>84.34082853376037</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.09779099836487148</v>
+        <v>-0.00519551408736163</v>
       </c>
     </row>
     <row r="400">
@@ -6027,13 +6027,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>88.81584576422982</v>
+        <v>84.33613266007904</v>
       </c>
       <c r="C400" t="n">
-        <v>88.83135846263993</v>
+        <v>84.34938879425196</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.01551269841010594</v>
+        <v>-0.01325613417292004</v>
       </c>
     </row>
     <row r="401">
@@ -6041,13 +6041,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>88.84438985149231</v>
+        <v>84.34543864074656</v>
       </c>
       <c r="C401" t="n">
-        <v>88.86826644729288</v>
+        <v>84.404916220178</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.02387659580057289</v>
+        <v>-0.05947757943143017</v>
       </c>
     </row>
     <row r="402">
@@ -6055,13 +6055,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>88.85669971055499</v>
+        <v>84.35953565322035</v>
       </c>
       <c r="C402" t="n">
-        <v>88.89397852034979</v>
+        <v>84.45079396251822</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.03727880979479892</v>
+        <v>-0.09125830929787071</v>
       </c>
     </row>
     <row r="403">
@@ -6069,13 +6069,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>90.58649674514955</v>
+        <v>84.37343376792572</v>
       </c>
       <c r="C403" t="n">
-        <v>90.65950647384207</v>
+        <v>84.48664885259406</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.07300972869252575</v>
+        <v>-0.1132150846683402</v>
       </c>
     </row>
     <row r="404">
@@ -6083,13 +6083,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>90.60172214620671</v>
+        <v>84.38292090737949</v>
       </c>
       <c r="C404" t="n">
-        <v>90.71038235239759</v>
+        <v>84.42930916851809</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.1086602061908764</v>
+        <v>-0.04638826113860262</v>
       </c>
     </row>
     <row r="405">
@@ -6097,13 +6097,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>90.62114297178154</v>
+        <v>84.38470799206415</v>
       </c>
       <c r="C405" t="n">
-        <v>90.71210365905064</v>
+        <v>84.47906840588496</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.09096068726910289</v>
+        <v>-0.09436041382080873</v>
       </c>
     </row>
     <row r="406">
@@ -6111,13 +6111,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>90.62817973630261</v>
+        <v>84.39247021467129</v>
       </c>
       <c r="C406" t="n">
-        <v>90.63983938117087</v>
+        <v>84.51517785524447</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.01165964486825999</v>
+        <v>-0.1227076405731822</v>
       </c>
     </row>
     <row r="407">
@@ -6125,13 +6125,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>90.64483441453193</v>
+        <v>84.39708345742405</v>
       </c>
       <c r="C407" t="n">
-        <v>90.7002034710557</v>
+        <v>84.50285445771488</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.055369056523773</v>
+        <v>-0.1057710002908294</v>
       </c>
     </row>
     <row r="408">
@@ -6139,13 +6139,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>91.08184248156522</v>
+        <v>84.48145977390527</v>
       </c>
       <c r="C408" t="n">
-        <v>91.19210872103825</v>
+        <v>84.52627767062731</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.1102662394730345</v>
+        <v>-0.04481789672203718</v>
       </c>
     </row>
     <row r="409">
@@ -6153,13 +6153,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>91.11138983954881</v>
+        <v>84.50329222785817</v>
       </c>
       <c r="C409" t="n">
-        <v>91.13978039678997</v>
+        <v>84.50534055562784</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.0283905572411669</v>
+        <v>-0.002048327769671232</v>
       </c>
     </row>
     <row r="410">
@@ -6167,13 +6167,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>91.11307464511336</v>
+        <v>84.53453940283778</v>
       </c>
       <c r="C410" t="n">
-        <v>91.24368895467106</v>
+        <v>84.55344447416827</v>
       </c>
       <c r="D410" t="n">
-        <v>-0.1306143095576999</v>
+        <v>-0.01890507133049368</v>
       </c>
     </row>
     <row r="411">
@@ -6181,13 +6181,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>91.11479362537099</v>
+        <v>84.61659482284063</v>
       </c>
       <c r="C411" t="n">
-        <v>91.16570383185177</v>
+        <v>84.75674616551125</v>
       </c>
       <c r="D411" t="n">
-        <v>-0.05091020648077915</v>
+        <v>-0.1401513426706202</v>
       </c>
     </row>
     <row r="412">
@@ -6195,13 +6195,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>91.15507755346169</v>
+        <v>84.63140756445596</v>
       </c>
       <c r="C412" t="n">
-        <v>91.1870470528044</v>
+        <v>84.48587334293997</v>
       </c>
       <c r="D412" t="n">
-        <v>-0.03196949934270776</v>
+        <v>0.1455342215159874</v>
       </c>
     </row>
     <row r="413">
@@ -6209,13 +6209,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>91.15824019693243</v>
+        <v>84.66250195115576</v>
       </c>
       <c r="C413" t="n">
-        <v>91.18225384074564</v>
+        <v>84.67253694820064</v>
       </c>
       <c r="D413" t="n">
-        <v>-0.02401364381321969</v>
+        <v>-0.0100349970448832</v>
       </c>
     </row>
     <row r="414">
@@ -6223,13 +6223,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>91.17184671624936</v>
+        <v>84.66411276527897</v>
       </c>
       <c r="C414" t="n">
-        <v>91.21606502704647</v>
+        <v>84.72892734732919</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.04421831079710614</v>
+        <v>-0.06481458205021795</v>
       </c>
     </row>
     <row r="415">
@@ -6237,13 +6237,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>91.17229227941432</v>
+        <v>84.68068389525851</v>
       </c>
       <c r="C415" t="n">
-        <v>91.19169457147225</v>
+        <v>84.75569999956812</v>
       </c>
       <c r="D415" t="n">
-        <v>-0.01940229205793287</v>
+        <v>-0.07501610430961136</v>
       </c>
     </row>
     <row r="416">
@@ -6251,13 +6251,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>91.20090305433972</v>
+        <v>84.68339965634553</v>
       </c>
       <c r="C416" t="n">
-        <v>91.23010467581666</v>
+        <v>84.74748413989204</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.02920162147694327</v>
+        <v>-0.06408448354650886</v>
       </c>
     </row>
     <row r="417">
@@ -6265,13 +6265,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>91.20810503698625</v>
+        <v>84.68340432479214</v>
       </c>
       <c r="C417" t="n">
-        <v>91.21353967571473</v>
+        <v>84.68712250219966</v>
       </c>
       <c r="D417" t="n">
-        <v>-0.005434638728473828</v>
+        <v>-0.003718177407520784</v>
       </c>
     </row>
     <row r="418">
@@ -6279,13 +6279,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>92.2603763591178</v>
+        <v>84.69396060989925</v>
       </c>
       <c r="C418" t="n">
-        <v>92.27130391163666</v>
+        <v>84.77316614588237</v>
       </c>
       <c r="D418" t="n">
-        <v>-0.01092755251886501</v>
+        <v>-0.07920553598312097</v>
       </c>
     </row>
     <row r="419">
@@ -6293,13 +6293,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>92.27239029080336</v>
+        <v>84.71366163094011</v>
       </c>
       <c r="C419" t="n">
-        <v>92.33107590886625</v>
+        <v>84.54348534627042</v>
       </c>
       <c r="D419" t="n">
-        <v>-0.05868561806289563</v>
+        <v>0.1701762846696937</v>
       </c>
     </row>
     <row r="420">
@@ -6307,13 +6307,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>92.27286481038244</v>
+        <v>84.71413878919276</v>
       </c>
       <c r="C420" t="n">
-        <v>92.2811037789816</v>
+        <v>84.72271827782778</v>
       </c>
       <c r="D420" t="n">
-        <v>-0.008238968599158625</v>
+        <v>-0.008579488635021448</v>
       </c>
     </row>
     <row r="421">
@@ -6321,13 +6321,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>92.28850417659076</v>
+        <v>84.76130450755072</v>
       </c>
       <c r="C421" t="n">
-        <v>92.3042280290546</v>
+        <v>84.79100567254393</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.0157238524638359</v>
+        <v>-0.02970116499321307</v>
       </c>
     </row>
     <row r="422">
@@ -6335,13 +6335,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>92.29927280258958</v>
+        <v>85.09502362048831</v>
       </c>
       <c r="C422" t="n">
-        <v>92.38679592966508</v>
+        <v>84.49031435096479</v>
       </c>
       <c r="D422" t="n">
-        <v>-0.08752312707549947</v>
+        <v>0.6047092695235108</v>
       </c>
     </row>
     <row r="423">
@@ -6349,13 +6349,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>92.32819674259405</v>
+        <v>85.7688828688232</v>
       </c>
       <c r="C423" t="n">
-        <v>92.36545930583431</v>
+        <v>85.99273819557079</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.03726256324026167</v>
+        <v>-0.2238553267475965</v>
       </c>
     </row>
     <row r="424">
@@ -6363,13 +6363,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>92.76713591114589</v>
+        <v>85.77170756135644</v>
       </c>
       <c r="C424" t="n">
-        <v>92.85157718350004</v>
+        <v>85.92539665922661</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.08444127235415522</v>
+        <v>-0.1536890978701706</v>
       </c>
     </row>
     <row r="425">
@@ -6377,13 +6377,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>92.77116114863776</v>
+        <v>85.8056332043132</v>
       </c>
       <c r="C425" t="n">
-        <v>92.77484274384625</v>
+        <v>85.86868478186487</v>
       </c>
       <c r="D425" t="n">
-        <v>-0.003681595208490762</v>
+        <v>-0.06305157755167556</v>
       </c>
     </row>
     <row r="426">
@@ -6391,13 +6391,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>92.79403033197782</v>
+        <v>85.82029212344929</v>
       </c>
       <c r="C426" t="n">
-        <v>92.86423592952177</v>
+        <v>85.93472796315783</v>
       </c>
       <c r="D426" t="n">
-        <v>-0.0702055975439464</v>
+        <v>-0.1144358397085341</v>
       </c>
     </row>
     <row r="427">
@@ -6405,13 +6405,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>92.800547134081</v>
+        <v>85.82853708620482</v>
       </c>
       <c r="C427" t="n">
-        <v>92.85364975401319</v>
+        <v>85.95740650463047</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.05310261993219001</v>
+        <v>-0.1288694184256514</v>
       </c>
     </row>
     <row r="428">
@@ -6419,13 +6419,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>92.81875338706227</v>
+        <v>85.87991241172085</v>
       </c>
       <c r="C428" t="n">
-        <v>92.8789267820294</v>
+        <v>85.94835355346737</v>
       </c>
       <c r="D428" t="n">
-        <v>-0.06017339496712282</v>
+        <v>-0.0684411417465185</v>
       </c>
     </row>
     <row r="429">
@@ -6433,13 +6433,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>92.83345289061822</v>
+        <v>85.90879323578937</v>
       </c>
       <c r="C429" t="n">
-        <v>92.91329289248301</v>
+        <v>85.94913244192804</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.07984000186479534</v>
+        <v>-0.04033920613866826</v>
       </c>
     </row>
     <row r="430">
@@ -6447,13 +6447,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>92.8336307150867</v>
+        <v>85.93660269066241</v>
       </c>
       <c r="C430" t="n">
-        <v>92.89927200410483</v>
+        <v>85.94041873801714</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.06564128901813149</v>
+        <v>-0.003816047354732177</v>
       </c>
     </row>
     <row r="431">
@@ -6461,13 +6461,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>92.88826543460758</v>
+        <v>85.93698661043175</v>
       </c>
       <c r="C431" t="n">
-        <v>92.91676022716271</v>
+        <v>85.94409277690416</v>
       </c>
       <c r="D431" t="n">
-        <v>-0.02849479255513643</v>
+        <v>-0.007106166472411246</v>
       </c>
     </row>
     <row r="432">
@@ -6475,13 +6475,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>92.90408242162688</v>
+        <v>85.94112654245592</v>
       </c>
       <c r="C432" t="n">
-        <v>92.93118408409595</v>
+        <v>85.94218497461411</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.02710166246906454</v>
+        <v>-0.001058432158188793</v>
       </c>
     </row>
     <row r="433">
@@ -6489,13 +6489,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>92.905839578072</v>
+        <v>85.94964322531276</v>
       </c>
       <c r="C433" t="n">
-        <v>92.93438379154156</v>
+        <v>85.96101361032545</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.0285442134695586</v>
+        <v>-0.01137038501269672</v>
       </c>
     </row>
     <row r="434">
@@ -6503,13 +6503,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>92.92577363677161</v>
+        <v>86.01183481751126</v>
       </c>
       <c r="C434" t="n">
-        <v>92.938988071206</v>
+        <v>85.95478945708795</v>
       </c>
       <c r="D434" t="n">
-        <v>-0.01321443443438852</v>
+        <v>0.05704536042330233</v>
       </c>
     </row>
     <row r="435">
@@ -6517,13 +6517,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>93.08494065352448</v>
+        <v>86.14643314517579</v>
       </c>
       <c r="C435" t="n">
-        <v>92.93202208843242</v>
+        <v>85.91914101728322</v>
       </c>
       <c r="D435" t="n">
-        <v>0.1529185650920653</v>
+        <v>0.2272921278925679</v>
       </c>
     </row>
     <row r="436">
@@ -6531,13 +6531,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>93.69839786767612</v>
+        <v>88.45112281864057</v>
       </c>
       <c r="C436" t="n">
-        <v>93.72261465141511</v>
+        <v>88.54617113010502</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.02421678373899283</v>
+        <v>-0.09504831146445269</v>
       </c>
     </row>
     <row r="437">
@@ -6545,13 +6545,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>93.73974134225219</v>
+        <v>88.46111343390123</v>
       </c>
       <c r="C437" t="n">
-        <v>93.74685470178709</v>
+        <v>88.49175973369823</v>
       </c>
       <c r="D437" t="n">
-        <v>-0.007113359534898223</v>
+        <v>-0.03064629979699873</v>
       </c>
     </row>
     <row r="438">
@@ -6559,13 +6559,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>93.74461982742042</v>
+        <v>88.46210739508676</v>
       </c>
       <c r="C438" t="n">
-        <v>93.77663899594985</v>
+        <v>88.48733750166612</v>
       </c>
       <c r="D438" t="n">
-        <v>-0.03201916852943043</v>
+        <v>-0.02523010657935743</v>
       </c>
     </row>
     <row r="439">
@@ -6573,13 +6573,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>93.75070467239233</v>
+        <v>88.46876295883979</v>
       </c>
       <c r="C439" t="n">
-        <v>93.75740462081909</v>
+        <v>88.47254313592775</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.006699948426756919</v>
+        <v>-0.003780177087961079</v>
       </c>
     </row>
     <row r="440">
@@ -6587,13 +6587,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>93.76689026093737</v>
+        <v>88.47890983164689</v>
       </c>
       <c r="C440" t="n">
-        <v>93.86001726289913</v>
+        <v>88.48625060123116</v>
       </c>
       <c r="D440" t="n">
-        <v>-0.09312700196176138</v>
+        <v>-0.007340769584274653</v>
       </c>
     </row>
     <row r="441">
@@ -6601,13 +6601,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>93.81904382893782</v>
+        <v>88.49351888909203</v>
       </c>
       <c r="C441" t="n">
-        <v>93.82969107404503</v>
+        <v>88.51894726786429</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.01064724510720794</v>
+        <v>-0.02542837877226134</v>
       </c>
     </row>
     <row r="442">
@@ -6615,13 +6615,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>93.82061372773045</v>
+        <v>88.51896476997744</v>
       </c>
       <c r="C442" t="n">
-        <v>93.86622082360306</v>
+        <v>88.56425779478717</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.04560709587261158</v>
+        <v>-0.04529302480972319</v>
       </c>
     </row>
     <row r="443">
@@ -6629,13 +6629,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>95.64275318912335</v>
+        <v>88.5375035622794</v>
       </c>
       <c r="C443" t="n">
-        <v>95.72279149087892</v>
+        <v>88.65959300519414</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.08003830175556459</v>
+        <v>-0.1220894429147421</v>
       </c>
     </row>
     <row r="444">
@@ -6643,13 +6643,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>95.65046541801034</v>
+        <v>88.55246014301716</v>
       </c>
       <c r="C444" t="n">
-        <v>95.74475122158344</v>
+        <v>88.65057894087256</v>
       </c>
       <c r="D444" t="n">
-        <v>-0.09428580357310068</v>
+        <v>-0.09811879785540611</v>
       </c>
     </row>
     <row r="445">
@@ -6657,13 +6657,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>95.65233042018509</v>
+        <v>88.55745540728032</v>
       </c>
       <c r="C445" t="n">
-        <v>95.65764272006385</v>
+        <v>88.61312083332597</v>
       </c>
       <c r="D445" t="n">
-        <v>-0.005312299878752924</v>
+        <v>-0.05566542604564972</v>
       </c>
     </row>
     <row r="446">
@@ -6671,13 +6671,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>95.65822717160832</v>
+        <v>88.5646368831206</v>
       </c>
       <c r="C446" t="n">
-        <v>95.65853911244119</v>
+        <v>88.61244041091824</v>
       </c>
       <c r="D446" t="n">
-        <v>-0.0003119408328728923</v>
+        <v>-0.0478035277976403</v>
       </c>
     </row>
     <row r="447">
@@ -6685,13 +6685,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>95.68502666550854</v>
+        <v>88.57178873280563</v>
       </c>
       <c r="C447" t="n">
-        <v>95.71552269568325</v>
+        <v>88.58083335339634</v>
       </c>
       <c r="D447" t="n">
-        <v>-0.03049603017470304</v>
+        <v>-0.009044620590714203</v>
       </c>
     </row>
     <row r="448">
@@ -6699,13 +6699,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>95.68909956191571</v>
+        <v>88.60650454637464</v>
       </c>
       <c r="C448" t="n">
-        <v>95.74251208196932</v>
+        <v>88.6467244509961</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.05341252005361241</v>
+        <v>-0.04021990462146618</v>
       </c>
     </row>
     <row r="449">
@@ -6713,13 +6713,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>95.7279690466605</v>
+        <v>88.64853353098651</v>
       </c>
       <c r="C449" t="n">
-        <v>95.80150039817239</v>
+        <v>88.65548099536959</v>
       </c>
       <c r="D449" t="n">
-        <v>-0.07353135151188894</v>
+        <v>-0.006947464383074475</v>
       </c>
     </row>
     <row r="450">
@@ -6727,13 +6727,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>95.74614611409329</v>
+        <v>89.22368961870268</v>
       </c>
       <c r="C450" t="n">
-        <v>95.75618744436953</v>
+        <v>88.64348836384428</v>
       </c>
       <c r="D450" t="n">
-        <v>-0.01004133027623766</v>
+        <v>0.5802012548583946</v>
       </c>
     </row>
     <row r="451">
@@ -6741,13 +6741,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>95.74659621402277</v>
+        <v>90.13045300567263</v>
       </c>
       <c r="C451" t="n">
-        <v>95.79157774219372</v>
+        <v>90.34021185560937</v>
       </c>
       <c r="D451" t="n">
-        <v>-0.04498152817095047</v>
+        <v>-0.2097588499367333</v>
       </c>
     </row>
     <row r="452">
@@ -6755,13 +6755,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>95.76329682541163</v>
+        <v>90.14087971785263</v>
       </c>
       <c r="C452" t="n">
-        <v>95.80761235149123</v>
+        <v>90.16506151681696</v>
       </c>
       <c r="D452" t="n">
-        <v>-0.04431552607960043</v>
+        <v>-0.02418179896433514</v>
       </c>
     </row>
     <row r="453">
@@ -6769,13 +6769,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>95.76445181469192</v>
+        <v>90.15573910048458</v>
       </c>
       <c r="C453" t="n">
-        <v>95.78831873520099</v>
+        <v>90.23089234502831</v>
       </c>
       <c r="D453" t="n">
-        <v>-0.02386692050906447</v>
+        <v>-0.07515324454372774</v>
       </c>
     </row>
     <row r="454">
@@ -6783,13 +6783,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>95.76501916138184</v>
+        <v>90.162041450679</v>
       </c>
       <c r="C454" t="n">
-        <v>95.7704295823644</v>
+        <v>90.3273319912423</v>
       </c>
       <c r="D454" t="n">
-        <v>-0.00541042098255673</v>
+        <v>-0.1652905405633049</v>
       </c>
     </row>
     <row r="455">
@@ -6797,13 +6797,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>95.76725767051013</v>
+        <v>90.17239829345273</v>
       </c>
       <c r="C455" t="n">
-        <v>95.78506347133511</v>
+        <v>90.21436762256403</v>
       </c>
       <c r="D455" t="n">
-        <v>-0.01780580082497352</v>
+        <v>-0.04196932911129636</v>
       </c>
     </row>
     <row r="456">
@@ -6811,13 +6811,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>95.78827354549232</v>
+        <v>90.17653075093794</v>
       </c>
       <c r="C456" t="n">
-        <v>95.79709723804699</v>
+        <v>90.35300205401961</v>
       </c>
       <c r="D456" t="n">
-        <v>-0.00882369255467097</v>
+        <v>-0.1764713030816694</v>
       </c>
     </row>
     <row r="457">
@@ -6825,13 +6825,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>95.79422896293181</v>
+        <v>90.18845280553595</v>
       </c>
       <c r="C457" t="n">
-        <v>95.80568613483095</v>
+        <v>90.21008505078858</v>
       </c>
       <c r="D457" t="n">
-        <v>-0.01145717189913853</v>
+        <v>-0.02163224525263274</v>
       </c>
     </row>
     <row r="458">
@@ -6839,13 +6839,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>98.64936475817231</v>
+        <v>90.20312890735708</v>
       </c>
       <c r="C458" t="n">
-        <v>98.78319484766401</v>
+        <v>90.22678527682501</v>
       </c>
       <c r="D458" t="n">
-        <v>-0.1338300894916955</v>
+        <v>-0.02365636946792904</v>
       </c>
     </row>
     <row r="459">
@@ -6853,13 +6853,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>98.66526622981765</v>
+        <v>90.26067160289962</v>
       </c>
       <c r="C459" t="n">
-        <v>98.80150360916315</v>
+        <v>90.29304741861203</v>
       </c>
       <c r="D459" t="n">
-        <v>-0.1362373793455021</v>
+        <v>-0.03237581571241321</v>
       </c>
     </row>
     <row r="460">
@@ -6867,13 +6867,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>98.67740623401777</v>
+        <v>90.27141268162755</v>
       </c>
       <c r="C460" t="n">
-        <v>98.80724711243944</v>
+        <v>90.29137076937778</v>
       </c>
       <c r="D460" t="n">
-        <v>-0.1298408784216747</v>
+        <v>-0.01995808775022567</v>
       </c>
     </row>
     <row r="461">
@@ -6881,13 +6881,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>98.70436543217571</v>
+        <v>90.27819173470444</v>
       </c>
       <c r="C461" t="n">
-        <v>98.81247801903595</v>
+        <v>90.29162388735179</v>
       </c>
       <c r="D461" t="n">
-        <v>-0.1081125868602442</v>
+        <v>-0.0134321526473542</v>
       </c>
     </row>
     <row r="462">
@@ -6895,13 +6895,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>98.71018871491331</v>
+        <v>90.29963859803998</v>
       </c>
       <c r="C462" t="n">
-        <v>98.7776900361501</v>
+        <v>90.29975846812</v>
       </c>
       <c r="D462" t="n">
-        <v>-0.06750132123679009</v>
+        <v>-0.00011987008002734</v>
       </c>
     </row>
     <row r="463">
@@ -6909,13 +6909,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>98.71100234273521</v>
+        <v>90.32232304356151</v>
       </c>
       <c r="C463" t="n">
-        <v>98.76741504899998</v>
+        <v>90.3350958137555</v>
       </c>
       <c r="D463" t="n">
-        <v>-0.05641270626476569</v>
+        <v>-0.01277277019399037</v>
       </c>
     </row>
     <row r="464">
@@ -6923,13 +6923,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>98.71568440028049</v>
+        <v>90.32671692229373</v>
       </c>
       <c r="C464" t="n">
-        <v>98.80430133697611</v>
+        <v>90.33173313489745</v>
       </c>
       <c r="D464" t="n">
-        <v>-0.08861693669561532</v>
+        <v>-0.00501621260372076</v>
       </c>
     </row>
     <row r="465">
@@ -6937,13 +6937,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>98.73663925026555</v>
+        <v>90.89978154593757</v>
       </c>
       <c r="C465" t="n">
-        <v>98.81054683687583</v>
+        <v>90.21078497960701</v>
       </c>
       <c r="D465" t="n">
-        <v>-0.07390758661027519</v>
+        <v>0.6889965663305588</v>
       </c>
     </row>
     <row r="466">
@@ -6951,13 +6951,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>98.74175785540193</v>
+        <v>96.08416734889039</v>
       </c>
       <c r="C466" t="n">
-        <v>98.77700223437654</v>
+        <v>96.20550169097488</v>
       </c>
       <c r="D466" t="n">
-        <v>-0.03524437897461041</v>
+        <v>-0.121334342084495</v>
       </c>
     </row>
     <row r="467">
@@ -6965,13 +6965,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>98.7773514284896</v>
+        <v>96.09538817656248</v>
       </c>
       <c r="C467" t="n">
-        <v>98.78192782895961</v>
+        <v>96.27935008908587</v>
       </c>
       <c r="D467" t="n">
-        <v>-0.004576400470014619</v>
+        <v>-0.1839619125233867</v>
       </c>
     </row>
     <row r="468">
@@ -6979,13 +6979,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>98.78104401983009</v>
+        <v>96.09766918290678</v>
       </c>
       <c r="C468" t="n">
-        <v>98.7945846477342</v>
+        <v>96.16119722942439</v>
       </c>
       <c r="D468" t="n">
-        <v>-0.01354062790410637</v>
+        <v>-0.0635280465176038</v>
       </c>
     </row>
     <row r="469">
@@ -6993,13 +6993,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>99.32159109053461</v>
+        <v>96.10596280312471</v>
       </c>
       <c r="C469" t="n">
-        <v>99.39733553981922</v>
+        <v>96.15202354827724</v>
       </c>
       <c r="D469" t="n">
-        <v>-0.07574444928461332</v>
+        <v>-0.04606074515253056</v>
       </c>
     </row>
     <row r="470">
@@ -7007,13 +7007,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>99.33336810439803</v>
+        <v>96.10987411475237</v>
       </c>
       <c r="C470" t="n">
-        <v>99.40903322873294</v>
+        <v>96.26601538836705</v>
       </c>
       <c r="D470" t="n">
-        <v>-0.07566512433490402</v>
+        <v>-0.1561412736146792</v>
       </c>
     </row>
     <row r="471">
@@ -7021,13 +7021,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>99.34536221717993</v>
+        <v>96.11255148235978</v>
       </c>
       <c r="C471" t="n">
-        <v>99.40466079234919</v>
+        <v>96.25073168025892</v>
       </c>
       <c r="D471" t="n">
-        <v>-0.05929857516926518</v>
+        <v>-0.1381801978991462</v>
       </c>
     </row>
     <row r="472">
@@ -7035,13 +7035,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>99.35149472996227</v>
+        <v>96.14753381880003</v>
       </c>
       <c r="C472" t="n">
-        <v>99.41848486383969</v>
+        <v>96.28736724291143</v>
       </c>
       <c r="D472" t="n">
-        <v>-0.06699013387742525</v>
+        <v>-0.1398334241114014</v>
       </c>
     </row>
     <row r="473">
@@ -7049,13 +7049,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>99.35560427588204</v>
+        <v>96.15703604954818</v>
       </c>
       <c r="C473" t="n">
-        <v>99.37393384957493</v>
+        <v>96.19433132941778</v>
       </c>
       <c r="D473" t="n">
-        <v>-0.01832957369288124</v>
+        <v>-0.03729527986959624</v>
       </c>
     </row>
     <row r="474">
@@ -7063,13 +7063,13 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>99.35796558294686</v>
+        <v>96.15783299743302</v>
       </c>
       <c r="C474" t="n">
-        <v>99.4013168737998</v>
+        <v>96.22534390248555</v>
       </c>
       <c r="D474" t="n">
-        <v>-0.04335129085293943</v>
+        <v>-0.06751090505252932</v>
       </c>
     </row>
     <row r="475">
@@ -7077,13 +7077,13 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>99.36004929462464</v>
+        <v>96.19160424087859</v>
       </c>
       <c r="C475" t="n">
-        <v>99.42538286594952</v>
+        <v>96.23445751157898</v>
       </c>
       <c r="D475" t="n">
-        <v>-0.06533357132487083</v>
+        <v>-0.04285327070039102</v>
       </c>
     </row>
     <row r="476">
@@ -7091,13 +7091,13 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>99.3600991975795</v>
+        <v>96.21221003931679</v>
       </c>
       <c r="C476" t="n">
-        <v>99.3811949837164</v>
+        <v>96.30361351610769</v>
       </c>
       <c r="D476" t="n">
-        <v>-0.02109578613689678</v>
+        <v>-0.09140347679090155</v>
       </c>
     </row>
     <row r="477">
@@ -7105,13 +7105,13 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>99.37623193984906</v>
+        <v>96.2178802693247</v>
       </c>
       <c r="C477" t="n">
-        <v>99.40524102070259</v>
+        <v>96.28724895840263</v>
       </c>
       <c r="D477" t="n">
-        <v>-0.02900908085352683</v>
+        <v>-0.06936868907793325</v>
       </c>
     </row>
     <row r="478">
@@ -7119,13 +7119,13 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>99.3762383743297</v>
+        <v>96.23907180742852</v>
       </c>
       <c r="C478" t="n">
-        <v>99.39664165568699</v>
+        <v>96.27423554805712</v>
       </c>
       <c r="D478" t="n">
-        <v>-0.02040328135728942</v>
+        <v>-0.0351637406286045</v>
       </c>
     </row>
     <row r="479">
@@ -7133,13 +7133,13 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>99.38575358385617</v>
+        <v>96.25700041121091</v>
       </c>
       <c r="C479" t="n">
-        <v>99.40286828043793</v>
+        <v>96.2885619007365</v>
       </c>
       <c r="D479" t="n">
-        <v>-0.01711469658175702</v>
+        <v>-0.03156148952558624</v>
       </c>
     </row>
     <row r="480">
@@ -7147,13 +7147,13 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>99.39081652643726</v>
+        <v>96.28076877712033</v>
       </c>
       <c r="C480" t="n">
-        <v>99.43841261921374</v>
+        <v>96.30364198452492</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.04759609277647314</v>
+        <v>-0.02287320740458654</v>
       </c>
     </row>
     <row r="481">
@@ -7161,13 +7161,237 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>99.39752981498057</v>
+        <v>97.45626163485761</v>
       </c>
       <c r="C481" t="n">
-        <v>99.45071256882441</v>
+        <v>97.45955674025582</v>
       </c>
       <c r="D481" t="n">
-        <v>-0.05318275384384208</v>
+        <v>-0.003295105398208875</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>97.48897946699549</v>
+      </c>
+      <c r="C482" t="n">
+        <v>97.64179522779521</v>
+      </c>
+      <c r="D482" t="n">
+        <v>-0.1528157607997258</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>97.49967833951034</v>
+      </c>
+      <c r="C483" t="n">
+        <v>97.57828274537633</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-0.07860440586598827</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>97.50441873971666</v>
+      </c>
+      <c r="C484" t="n">
+        <v>97.54778636725342</v>
+      </c>
+      <c r="D484" t="n">
+        <v>-0.04336762753676737</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>97.51802041779585</v>
+      </c>
+      <c r="C485" t="n">
+        <v>97.57238071718653</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.05436029939068021</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>97.520696470799</v>
+      </c>
+      <c r="C486" t="n">
+        <v>97.52979654894212</v>
+      </c>
+      <c r="D486" t="n">
+        <v>-0.009100078143120527</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>97.53669341469016</v>
+      </c>
+      <c r="C487" t="n">
+        <v>97.6679516549685</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-0.131258240278342</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>97.55654680048565</v>
+      </c>
+      <c r="C488" t="n">
+        <v>97.61335434378591</v>
+      </c>
+      <c r="D488" t="n">
+        <v>-0.05680754330026616</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>97.56790425860719</v>
+      </c>
+      <c r="C489" t="n">
+        <v>97.63503559424765</v>
+      </c>
+      <c r="D489" t="n">
+        <v>-0.06713133564046814</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>97.60602570411969</v>
+      </c>
+      <c r="C490" t="n">
+        <v>97.64644074408507</v>
+      </c>
+      <c r="D490" t="n">
+        <v>-0.04041503996538154</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>97.62042678732615</v>
+      </c>
+      <c r="C491" t="n">
+        <v>97.66192603875693</v>
+      </c>
+      <c r="D491" t="n">
+        <v>-0.04149925143077837</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>98.12763244602273</v>
+      </c>
+      <c r="C492" t="n">
+        <v>98.1557711005417</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-0.02813865451896902</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>98.15637669106732</v>
+      </c>
+      <c r="C493" t="n">
+        <v>98.2468035985398</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-0.09042690747247661</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>98.1585227257378</v>
+      </c>
+      <c r="C494" t="n">
+        <v>98.18967052964872</v>
+      </c>
+      <c r="D494" t="n">
+        <v>-0.03114780391092609</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>98.20885308058831</v>
+      </c>
+      <c r="C495" t="n">
+        <v>98.34882275204427</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-0.1399696714559582</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>98.23002975191415</v>
+      </c>
+      <c r="C496" t="n">
+        <v>98.23206480300783</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.00203505109368507</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>98.28404647169823</v>
+      </c>
+      <c r="C497" t="n">
+        <v>98.33403395077013</v>
+      </c>
+      <c r="D497" t="n">
+        <v>-0.04998747907190193</v>
       </c>
     </row>
   </sheetData>
